--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -3457,13 +3457,13 @@
         <v>510</v>
       </c>
       <c r="C2" s="2">
-        <v>119.56</v>
+        <v>121.55</v>
       </c>
       <c r="D2" s="2">
-        <v>35315132800</v>
+        <v>35902930678</v>
       </c>
       <c r="E2" s="3">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3474,13 +3474,13 @@
         <v>511</v>
       </c>
       <c r="C3" s="2">
-        <v>18.7</v>
+        <v>18.655</v>
       </c>
       <c r="D3" s="2">
-        <v>12209230000</v>
+        <v>12179849500</v>
       </c>
       <c r="E3" s="3">
-        <v>105</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3491,13 +3491,13 @@
         <v>512</v>
       </c>
       <c r="C4" s="2">
-        <v>69.31</v>
+        <v>71.7</v>
       </c>
       <c r="D4" s="2">
-        <v>4120053382</v>
+        <v>4262124188</v>
       </c>
       <c r="E4" s="3">
-        <v>28</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3508,13 +3508,13 @@
         <v>513</v>
       </c>
       <c r="C5" s="2">
-        <v>193.72</v>
+        <v>193.13</v>
       </c>
       <c r="D5" s="2">
-        <v>3046964151440</v>
+        <v>3037684217260</v>
       </c>
       <c r="E5" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3525,13 +3525,13 @@
         <v>514</v>
       </c>
       <c r="C6" s="2">
-        <v>136.58</v>
+        <v>137.43</v>
       </c>
       <c r="D6" s="2">
-        <v>240966684494</v>
+        <v>242466330722</v>
       </c>
       <c r="E6" s="3">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3542,13 +3542,13 @@
         <v>515</v>
       </c>
       <c r="C7" s="2">
-        <v>192.39</v>
+        <v>190.6</v>
       </c>
       <c r="D7" s="2">
-        <v>38912687698</v>
+        <v>38550643355</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3565,7 +3565,7 @@
         <v>17180642928</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3576,13 +3576,13 @@
         <v>517</v>
       </c>
       <c r="C9" s="2">
-        <v>106.95</v>
+        <v>107.3</v>
       </c>
       <c r="D9" s="2">
-        <v>185980360153</v>
+        <v>186588991533</v>
       </c>
       <c r="E9" s="3">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3593,13 +3593,13 @@
         <v>518</v>
       </c>
       <c r="C10" s="2">
-        <v>322.43</v>
+        <v>322.335</v>
       </c>
       <c r="D10" s="2">
-        <v>214194031749</v>
+        <v>214130922134</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3610,13 +3610,13 @@
         <v>519</v>
       </c>
       <c r="C11" s="2">
-        <v>532.38</v>
+        <v>532.04</v>
       </c>
       <c r="D11" s="2">
-        <v>242658804000</v>
+        <v>242503832000</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3627,13 +3627,13 @@
         <v>520</v>
       </c>
       <c r="C12" s="2">
-        <v>196.5</v>
+        <v>196.18</v>
       </c>
       <c r="D12" s="2">
-        <v>98528696736</v>
+        <v>98368242879</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3644,13 +3644,13 @@
         <v>521</v>
       </c>
       <c r="C13" s="2">
-        <v>80.75</v>
+        <v>80.72</v>
       </c>
       <c r="D13" s="2">
-        <v>43979261473</v>
+        <v>43962922428</v>
       </c>
       <c r="E13" s="3">
-        <v>24</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3661,13 +3661,13 @@
         <v>522</v>
       </c>
       <c r="C14" s="2">
-        <v>235.93</v>
+        <v>237.265</v>
       </c>
       <c r="D14" s="2">
-        <v>97468052531</v>
+        <v>98019571414</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3678,13 +3678,13 @@
         <v>523</v>
       </c>
       <c r="C15" s="2">
-        <v>217.23</v>
+        <v>222.34</v>
       </c>
       <c r="D15" s="2">
-        <v>46427789999</v>
+        <v>47519932000</v>
       </c>
       <c r="E15" s="3">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3695,13 +3695,13 @@
         <v>524</v>
       </c>
       <c r="C16" s="2">
-        <v>84.31</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>22140604584</v>
+        <v>22369074825</v>
       </c>
       <c r="E16" s="3">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3712,13 +3712,13 @@
         <v>525</v>
       </c>
       <c r="C17" s="2">
-        <v>84.675</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>43511610409</v>
+        <v>44069155107</v>
       </c>
       <c r="E17" s="3">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3729,13 +3729,13 @@
         <v>526</v>
       </c>
       <c r="C18" s="2">
-        <v>21.75</v>
+        <v>22.185</v>
       </c>
       <c r="D18" s="2">
-        <v>14558051823</v>
+        <v>14849212859</v>
       </c>
       <c r="E18" s="3">
-        <v>91</v>
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3746,13 +3746,13 @@
         <v>527</v>
       </c>
       <c r="C19" s="2">
-        <v>70.94</v>
+        <v>70.97</v>
       </c>
       <c r="D19" s="2">
-        <v>42863863025</v>
+        <v>42881989835</v>
       </c>
       <c r="E19" s="3">
-        <v>27</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3763,13 +3763,13 @@
         <v>528</v>
       </c>
       <c r="C20" s="2">
-        <v>59.37</v>
+        <v>59.395</v>
       </c>
       <c r="D20" s="2">
-        <v>42969186637</v>
+        <v>42987280450</v>
       </c>
       <c r="E20" s="3">
-        <v>33</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3780,13 +3780,13 @@
         <v>529</v>
       </c>
       <c r="C21" s="2">
-        <v>8.73</v>
+        <v>8.715</v>
       </c>
       <c r="D21" s="2">
-        <v>1297419574</v>
+        <v>1295190331</v>
       </c>
       <c r="E21" s="3">
-        <v>226</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3803,7 +3803,7 @@
         <v>6722664960</v>
       </c>
       <c r="E22" s="3">
-        <v>15</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3814,13 +3814,13 @@
         <v>531</v>
       </c>
       <c r="C23" s="2">
-        <v>215.07</v>
+        <v>214.83</v>
       </c>
       <c r="D23" s="2">
-        <v>46077887220</v>
+        <v>46026468180</v>
       </c>
       <c r="E23" s="3">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3831,13 +3831,13 @@
         <v>532</v>
       </c>
       <c r="C24" s="2">
-        <v>93.8</v>
+        <v>94.16</v>
       </c>
       <c r="D24" s="2">
-        <v>14276558387</v>
+        <v>14331351148</v>
       </c>
       <c r="E24" s="3">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3848,13 +3848,13 @@
         <v>533</v>
       </c>
       <c r="C25" s="2">
-        <v>237.03</v>
+        <v>236.48</v>
       </c>
       <c r="D25" s="2">
-        <v>27812256610</v>
+        <v>27747721568</v>
       </c>
       <c r="E25" s="3">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3865,13 +3865,13 @@
         <v>534</v>
       </c>
       <c r="C26" s="2">
-        <v>360.74</v>
+        <v>342.61</v>
       </c>
       <c r="D26" s="2">
-        <v>27602724904</v>
+        <v>26215472582</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3882,13 +3882,13 @@
         <v>535</v>
       </c>
       <c r="C27" s="2">
-        <v>53.42</v>
+        <v>53.86</v>
       </c>
       <c r="D27" s="2">
-        <v>6833003323</v>
+        <v>6889284144</v>
       </c>
       <c r="E27" s="3">
-        <v>37</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3899,13 +3899,13 @@
         <v>536</v>
       </c>
       <c r="C28" s="2">
-        <v>103.42</v>
+        <v>104.78</v>
       </c>
       <c r="D28" s="2">
-        <v>27184145049</v>
+        <v>27541623654</v>
       </c>
       <c r="E28" s="3">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3916,13 +3916,13 @@
         <v>537</v>
       </c>
       <c r="C29" s="2">
-        <v>125.6</v>
+        <v>125.87</v>
       </c>
       <c r="D29" s="2">
-        <v>11046102380</v>
+        <v>11069847982</v>
       </c>
       <c r="E29" s="3">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3939,7 +3939,7 @@
         <v>40336009475</v>
       </c>
       <c r="E30" s="3">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3950,13 +3950,13 @@
         <v>539</v>
       </c>
       <c r="C31" s="2">
-        <v>144.47</v>
+        <v>142.65</v>
       </c>
       <c r="D31" s="2">
-        <v>121788210000</v>
+        <v>120253950000</v>
       </c>
       <c r="E31" s="3">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3967,13 +3967,13 @@
         <v>540</v>
       </c>
       <c r="C32" s="2">
-        <v>9.949999999999999</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>14640865820</v>
+        <v>14655580258</v>
       </c>
       <c r="E32" s="3">
-        <v>199</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3984,13 +3984,13 @@
         <v>541</v>
       </c>
       <c r="C33" s="2">
-        <v>117.91</v>
+        <v>117.23</v>
       </c>
       <c r="D33" s="2">
-        <v>189877768092</v>
+        <v>188782722020</v>
       </c>
       <c r="E33" s="3">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4001,13 +4001,13 @@
         <v>542</v>
       </c>
       <c r="C34" s="2">
-        <v>158.87</v>
+        <v>157.45</v>
       </c>
       <c r="D34" s="2">
-        <v>36615592482</v>
+        <v>36288317721</v>
       </c>
       <c r="E34" s="3">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4018,13 +4018,13 @@
         <v>543</v>
       </c>
       <c r="C35" s="2">
-        <v>232.56</v>
+        <v>234.16</v>
       </c>
       <c r="D35" s="2">
-        <v>124262992701</v>
+        <v>125117915251</v>
       </c>
       <c r="E35" s="3">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4035,13 +4035,13 @@
         <v>544</v>
       </c>
       <c r="C36" s="2">
-        <v>352.46</v>
+        <v>353.24</v>
       </c>
       <c r="D36" s="2">
-        <v>36718854914</v>
+        <v>36800114367</v>
       </c>
       <c r="E36" s="3">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4052,13 +4052,13 @@
         <v>545</v>
       </c>
       <c r="C37" s="2">
-        <v>185.79</v>
+        <v>190.3</v>
       </c>
       <c r="D37" s="2">
-        <v>86586172445</v>
+        <v>88688027430</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4069,13 +4069,13 @@
         <v>546</v>
       </c>
       <c r="C38" s="2">
-        <v>132.83</v>
+        <v>135.02</v>
       </c>
       <c r="D38" s="2">
-        <v>1362882780377</v>
+        <v>1385352954954</v>
       </c>
       <c r="E38" s="3">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4086,13 +4086,13 @@
         <v>547</v>
       </c>
       <c r="C39" s="2">
-        <v>173.51</v>
+        <v>174.62</v>
       </c>
       <c r="D39" s="2">
-        <v>53490148454</v>
+        <v>53832342361</v>
       </c>
       <c r="E39" s="3">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4103,13 +4103,13 @@
         <v>548</v>
       </c>
       <c r="C40" s="2">
-        <v>349.19</v>
+        <v>349.85</v>
       </c>
       <c r="D40" s="2">
-        <v>30261272616</v>
+        <v>30318469099</v>
       </c>
       <c r="E40" s="3">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4126,7 +4126,7 @@
         <v>116342693132</v>
       </c>
       <c r="E41" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4137,13 +4137,13 @@
         <v>550</v>
       </c>
       <c r="C42" s="2">
-        <v>334.66</v>
+        <v>335.18</v>
       </c>
       <c r="D42" s="2">
-        <v>68352804050</v>
+        <v>68459011718</v>
       </c>
       <c r="E42" s="3">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4154,13 +4154,13 @@
         <v>551</v>
       </c>
       <c r="C43" s="2">
-        <v>76.51000000000001</v>
+        <v>76.47</v>
       </c>
       <c r="D43" s="2">
-        <v>11688855571</v>
+        <v>11682744550</v>
       </c>
       <c r="E43" s="3">
-        <v>25</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4171,13 +4171,13 @@
         <v>552</v>
       </c>
       <c r="C44" s="2">
-        <v>37.87</v>
+        <v>38.12</v>
       </c>
       <c r="D44" s="2">
-        <v>11686649091</v>
+        <v>11763798874</v>
       </c>
       <c r="E44" s="3">
-        <v>52</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4188,13 +4188,13 @@
         <v>553</v>
       </c>
       <c r="C45" s="2">
-        <v>298.26</v>
+        <v>297.03</v>
       </c>
       <c r="D45" s="2">
-        <v>66250322169</v>
+        <v>65977111225</v>
       </c>
       <c r="E45" s="3">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4205,13 +4205,13 @@
         <v>554</v>
       </c>
       <c r="C46" s="2">
-        <v>85.31</v>
+        <v>84.595</v>
       </c>
       <c r="D46" s="2">
-        <v>50786667814</v>
+        <v>50361014696</v>
       </c>
       <c r="E46" s="3">
-        <v>23</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4222,13 +4222,13 @@
         <v>555</v>
       </c>
       <c r="C47" s="2">
-        <v>108.94</v>
+        <v>109.41</v>
       </c>
       <c r="D47" s="2">
-        <v>29468966998</v>
+        <v>29596105005</v>
       </c>
       <c r="E47" s="3">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4239,13 +4239,13 @@
         <v>556</v>
       </c>
       <c r="C48" s="2">
-        <v>116.87</v>
+        <v>120</v>
       </c>
       <c r="D48" s="2">
-        <v>20219678700</v>
+        <v>20761200000</v>
       </c>
       <c r="E48" s="3">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4256,13 +4256,13 @@
         <v>557</v>
       </c>
       <c r="C49" s="2">
-        <v>119.35</v>
+        <v>120.14</v>
       </c>
       <c r="D49" s="2">
-        <v>17244559971</v>
+        <v>17358704943</v>
       </c>
       <c r="E49" s="3">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4273,13 +4273,13 @@
         <v>558</v>
       </c>
       <c r="C50" s="2">
-        <v>92.77</v>
+        <v>92.09</v>
       </c>
       <c r="D50" s="2">
-        <v>72759511000</v>
+        <v>72226187000</v>
       </c>
       <c r="E50" s="3">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4290,13 +4290,13 @@
         <v>559</v>
       </c>
       <c r="C51" s="2">
-        <v>193.05</v>
+        <v>193.39</v>
       </c>
       <c r="D51" s="2">
-        <v>27412920077</v>
+        <v>27461199761</v>
       </c>
       <c r="E51" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4307,13 +4307,13 @@
         <v>560</v>
       </c>
       <c r="C52" s="2">
-        <v>903.42</v>
+        <v>900.01</v>
       </c>
       <c r="D52" s="2">
-        <v>372828248585</v>
+        <v>371420991354</v>
       </c>
       <c r="E52" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4324,13 +4324,13 @@
         <v>561</v>
       </c>
       <c r="C53" s="2">
-        <v>177.34</v>
+        <v>177.31</v>
       </c>
       <c r="D53" s="2">
-        <v>14316354239</v>
+        <v>14313932391</v>
       </c>
       <c r="E53" s="3">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4341,13 +4341,13 @@
         <v>562</v>
       </c>
       <c r="C54" s="2">
-        <v>142.65</v>
+        <v>144.65</v>
       </c>
       <c r="D54" s="2">
-        <v>27765911109</v>
+        <v>28155198331</v>
       </c>
       <c r="E54" s="3">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4358,13 +4358,13 @@
         <v>563</v>
       </c>
       <c r="C55" s="2">
-        <v>178.04</v>
+        <v>178.515</v>
       </c>
       <c r="D55" s="2">
-        <v>132332122845</v>
+        <v>132685176980</v>
       </c>
       <c r="E55" s="3">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4375,13 +4375,13 @@
         <v>564</v>
       </c>
       <c r="C56" s="2">
-        <v>2528.09</v>
+        <v>2540.87</v>
       </c>
       <c r="D56" s="2">
-        <v>45899923669</v>
+        <v>46131956953</v>
       </c>
       <c r="E56" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4392,13 +4392,13 @@
         <v>565</v>
       </c>
       <c r="C57" s="2">
-        <v>211.57</v>
+        <v>210.78</v>
       </c>
       <c r="D57" s="2">
-        <v>127279138276</v>
+        <v>126803879405</v>
       </c>
       <c r="E57" s="3">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4409,13 +4409,13 @@
         <v>566</v>
       </c>
       <c r="C58" s="2">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="D58" s="2">
-        <v>244652991543</v>
+        <v>248637567953</v>
       </c>
       <c r="E58" s="3">
-        <v>64</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4426,13 +4426,13 @@
         <v>567</v>
       </c>
       <c r="C59" s="2">
-        <v>47.05</v>
+        <v>47.32</v>
       </c>
       <c r="D59" s="2">
-        <v>23800246358</v>
+        <v>23936825880</v>
       </c>
       <c r="E59" s="3">
-        <v>42</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4443,13 +4443,13 @@
         <v>568</v>
       </c>
       <c r="C60" s="2">
-        <v>83.56999999999999</v>
+        <v>83.37</v>
       </c>
       <c r="D60" s="2">
-        <v>18235854410</v>
+        <v>18192212303</v>
       </c>
       <c r="E60" s="3">
-        <v>23</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4460,13 +4460,13 @@
         <v>569</v>
       </c>
       <c r="C61" s="2">
-        <v>256.32</v>
+        <v>255.415</v>
       </c>
       <c r="D61" s="2">
-        <v>72798700450</v>
+        <v>72541666961</v>
       </c>
       <c r="E61" s="3">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4477,13 +4477,13 @@
         <v>570</v>
       </c>
       <c r="C62" s="2">
-        <v>29.48</v>
+        <v>29.82</v>
       </c>
       <c r="D62" s="2">
-        <v>14765453238</v>
+        <v>14935746797</v>
       </c>
       <c r="E62" s="3">
-        <v>67</v>
+        <v>664</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4494,13 +4494,13 @@
         <v>571</v>
       </c>
       <c r="C63" s="2">
-        <v>67.3</v>
+        <v>67.91</v>
       </c>
       <c r="D63" s="2">
-        <v>32495265456</v>
+        <v>32779084090</v>
       </c>
       <c r="E63" s="3">
-        <v>29</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4511,13 +4511,13 @@
         <v>572</v>
       </c>
       <c r="C64" s="2">
-        <v>276.15</v>
+        <v>277.03</v>
       </c>
       <c r="D64" s="2">
-        <v>39970587526</v>
+        <v>40097960754</v>
       </c>
       <c r="E64" s="3">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4528,13 +4528,13 @@
         <v>573</v>
       </c>
       <c r="C65" s="2">
-        <v>384.61</v>
+        <v>388.64</v>
       </c>
       <c r="D65" s="2">
-        <v>11373240772</v>
+        <v>11508295363</v>
       </c>
       <c r="E65" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4545,13 +4545,13 @@
         <v>574</v>
       </c>
       <c r="C66" s="2">
-        <v>45.33</v>
+        <v>46.115</v>
       </c>
       <c r="D66" s="2">
-        <v>35771435698</v>
+        <v>36390905740</v>
       </c>
       <c r="E66" s="3">
-        <v>43</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4562,13 +4562,13 @@
         <v>575</v>
       </c>
       <c r="C67" s="2">
-        <v>2981.05</v>
+        <v>2950.475</v>
       </c>
       <c r="D67" s="2">
-        <v>110101063295</v>
+        <v>108971816885</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4579,13 +4579,13 @@
         <v>576</v>
       </c>
       <c r="C68" s="2">
-        <v>35.05</v>
+        <v>35.195</v>
       </c>
       <c r="D68" s="2">
-        <v>35483294619</v>
+        <v>35630087136</v>
       </c>
       <c r="E68" s="3">
-        <v>56</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4596,13 +4596,13 @@
         <v>577</v>
       </c>
       <c r="C69" s="2">
-        <v>738.9299999999999</v>
+        <v>741.33</v>
       </c>
       <c r="D69" s="2">
-        <v>110664118659</v>
+        <v>111023549031</v>
       </c>
       <c r="E69" s="3">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4619,7 +4619,7 @@
         <v>22222129619</v>
       </c>
       <c r="E70" s="3">
-        <v>28</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4630,13 +4630,13 @@
         <v>579</v>
       </c>
       <c r="C71" s="2">
-        <v>62</v>
+        <v>62.505</v>
       </c>
       <c r="D71" s="2">
-        <v>130252522556</v>
+        <v>131313450361</v>
       </c>
       <c r="E71" s="3">
-        <v>31</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4647,13 +4647,13 @@
         <v>580</v>
       </c>
       <c r="C72" s="2">
-        <v>167.33</v>
+        <v>168.85</v>
       </c>
       <c r="D72" s="2">
-        <v>19741683758</v>
+        <v>19921014179</v>
       </c>
       <c r="E72" s="3">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4664,13 +4664,13 @@
         <v>581</v>
       </c>
       <c r="C73" s="2">
-        <v>345.34</v>
+        <v>343.33</v>
       </c>
       <c r="D73" s="2">
-        <v>755213083182</v>
+        <v>750580099627</v>
       </c>
       <c r="E73" s="3">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4681,13 +4681,13 @@
         <v>582</v>
       </c>
       <c r="C74" s="2">
-        <v>52.81</v>
+        <v>52.37</v>
       </c>
       <c r="D74" s="2">
-        <v>75924836714</v>
+        <v>75292249549</v>
       </c>
       <c r="E74" s="3">
-        <v>37</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4698,13 +4698,13 @@
         <v>583</v>
       </c>
       <c r="C75" s="2">
-        <v>45.65</v>
+        <v>45.78</v>
       </c>
       <c r="D75" s="2">
-        <v>10699143564</v>
+        <v>10729612100</v>
       </c>
       <c r="E75" s="3">
-        <v>43</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4715,13 +4715,13 @@
         <v>584</v>
       </c>
       <c r="C76" s="2">
-        <v>62.18</v>
+        <v>63.8</v>
       </c>
       <c r="D76" s="2">
-        <v>9752030644</v>
+        <v>10006104134</v>
       </c>
       <c r="E76" s="3">
-        <v>31</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4732,13 +4732,13 @@
         <v>585</v>
       </c>
       <c r="C77" s="2">
-        <v>47.02</v>
+        <v>47.135</v>
       </c>
       <c r="D77" s="2">
-        <v>91536271376</v>
+        <v>91760147837</v>
       </c>
       <c r="E77" s="3">
-        <v>42</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4749,13 +4749,13 @@
         <v>586</v>
       </c>
       <c r="C78" s="2">
-        <v>32.19</v>
+        <v>32.585</v>
       </c>
       <c r="D78" s="2">
-        <v>15356574147</v>
+        <v>15545013004</v>
       </c>
       <c r="E78" s="3">
-        <v>61</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4766,13 +4766,13 @@
         <v>587</v>
       </c>
       <c r="C79" s="2">
-        <v>93.19</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D79" s="2">
-        <v>23726190961</v>
+        <v>23413032737</v>
       </c>
       <c r="E79" s="3">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4783,13 +4783,13 @@
         <v>588</v>
       </c>
       <c r="C80" s="2">
-        <v>55.24</v>
+        <v>55.305</v>
       </c>
       <c r="D80" s="2">
-        <v>46116456754</v>
+        <v>46170721231</v>
       </c>
       <c r="E80" s="3">
-        <v>35</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4800,13 +4800,13 @@
         <v>589</v>
       </c>
       <c r="C81" s="2">
-        <v>263.81</v>
+        <v>260.89</v>
       </c>
       <c r="D81" s="2">
-        <v>135955973235</v>
+        <v>134451134746</v>
       </c>
       <c r="E81" s="3">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4817,13 +4817,13 @@
         <v>590</v>
       </c>
       <c r="C82" s="2">
-        <v>193</v>
+        <v>193.27</v>
       </c>
       <c r="D82" s="2">
-        <v>79935676377</v>
+        <v>80047503489</v>
       </c>
       <c r="E82" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4834,13 +4834,13 @@
         <v>591</v>
       </c>
       <c r="C83" s="2">
-        <v>140.49</v>
+        <v>139.68</v>
       </c>
       <c r="D83" s="2">
-        <v>14832156447</v>
+        <v>14746641132</v>
       </c>
       <c r="E83" s="3">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4851,13 +4851,13 @@
         <v>592</v>
       </c>
       <c r="C84" s="2">
-        <v>88.5</v>
+        <v>88.77</v>
       </c>
       <c r="D84" s="2">
-        <v>27508660497</v>
+        <v>27592585224</v>
       </c>
       <c r="E84" s="3">
-        <v>22</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4868,13 +4868,13 @@
         <v>593</v>
       </c>
       <c r="C85" s="2">
-        <v>110.56</v>
+        <v>113.66</v>
       </c>
       <c r="D85" s="2">
-        <v>47946698154</v>
+        <v>49291079162</v>
       </c>
       <c r="E85" s="3">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4885,13 +4885,13 @@
         <v>594</v>
       </c>
       <c r="C86" s="2">
-        <v>18.25</v>
+        <v>18.325</v>
       </c>
       <c r="D86" s="2">
-        <v>20426596105</v>
+        <v>20510541021</v>
       </c>
       <c r="E86" s="3">
-        <v>108</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4902,13 +4902,13 @@
         <v>595</v>
       </c>
       <c r="C87" s="2">
-        <v>244.14</v>
+        <v>242.87</v>
       </c>
       <c r="D87" s="2">
-        <v>66573071760</v>
+        <v>66226763080</v>
       </c>
       <c r="E87" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4919,13 +4919,13 @@
         <v>596</v>
       </c>
       <c r="C88" s="2">
-        <v>188.27</v>
+        <v>189.93</v>
       </c>
       <c r="D88" s="2">
-        <v>25376288244</v>
+        <v>25600034132</v>
       </c>
       <c r="E88" s="3">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4936,13 +4936,13 @@
         <v>597</v>
       </c>
       <c r="C89" s="2">
-        <v>123.63</v>
+        <v>122.7</v>
       </c>
       <c r="D89" s="2">
-        <v>13449436579</v>
+        <v>13348263919</v>
       </c>
       <c r="E89" s="3">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4959,7 +4959,7 @@
         <v>27915791082</v>
       </c>
       <c r="E90" s="3">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4970,13 +4970,13 @@
         <v>599</v>
       </c>
       <c r="C91" s="2">
-        <v>76.34999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="D91" s="2">
-        <v>14882136885</v>
+        <v>15188161179</v>
       </c>
       <c r="E91" s="3">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4987,13 +4987,13 @@
         <v>600</v>
       </c>
       <c r="C92" s="2">
-        <v>29.11</v>
+        <v>30.42</v>
       </c>
       <c r="D92" s="2">
-        <v>14088898889</v>
+        <v>14722923538</v>
       </c>
       <c r="E92" s="3">
-        <v>68</v>
+        <v>650</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5004,13 +5004,13 @@
         <v>601</v>
       </c>
       <c r="C93" s="2">
-        <v>98.18000000000001</v>
+        <v>97.64</v>
       </c>
       <c r="D93" s="2">
-        <v>23981839520</v>
+        <v>23849936960</v>
       </c>
       <c r="E93" s="3">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5021,13 +5021,13 @@
         <v>602</v>
       </c>
       <c r="C94" s="2">
-        <v>95.94</v>
+        <v>96.86</v>
       </c>
       <c r="D94" s="2">
-        <v>11171142501</v>
+        <v>11278266236</v>
       </c>
       <c r="E94" s="3">
-        <v>20</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5038,13 +5038,13 @@
         <v>603</v>
       </c>
       <c r="C95" s="2">
-        <v>387.22</v>
+        <v>393.66</v>
       </c>
       <c r="D95" s="2">
-        <v>58305740561</v>
+        <v>59275445042</v>
       </c>
       <c r="E95" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5055,13 +5055,13 @@
         <v>604</v>
       </c>
       <c r="C96" s="2">
-        <v>284.82</v>
+        <v>291.81</v>
       </c>
       <c r="D96" s="2">
-        <v>84270328833</v>
+        <v>86338475728</v>
       </c>
       <c r="E96" s="3">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5072,13 +5072,13 @@
         <v>605</v>
       </c>
       <c r="C97" s="2">
-        <v>99.73</v>
+        <v>99.78</v>
       </c>
       <c r="D97" s="2">
-        <v>15678823369</v>
+        <v>15686684004</v>
       </c>
       <c r="E97" s="3">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5089,13 +5089,13 @@
         <v>606</v>
       </c>
       <c r="C98" s="2">
-        <v>75.84</v>
+        <v>75.98</v>
       </c>
       <c r="D98" s="2">
-        <v>62914452212</v>
+        <v>63030591760</v>
       </c>
       <c r="E98" s="3">
-        <v>26</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5106,13 +5106,13 @@
         <v>607</v>
       </c>
       <c r="C99" s="2">
-        <v>154.02</v>
+        <v>154.61</v>
       </c>
       <c r="D99" s="2">
-        <v>19040495166</v>
+        <v>19113433046</v>
       </c>
       <c r="E99" s="3">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5123,13 +5123,13 @@
         <v>608</v>
       </c>
       <c r="C100" s="2">
-        <v>50.01</v>
+        <v>51.12</v>
       </c>
       <c r="D100" s="2">
-        <v>6584809749</v>
+        <v>6730963294</v>
       </c>
       <c r="E100" s="3">
-        <v>39</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5140,13 +5140,13 @@
         <v>609</v>
       </c>
       <c r="C101" s="2">
-        <v>42.45</v>
+        <v>42.655</v>
       </c>
       <c r="D101" s="2">
-        <v>176565808902</v>
+        <v>177418482420</v>
       </c>
       <c r="E101" s="3">
-        <v>46</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5157,13 +5157,13 @@
         <v>610</v>
       </c>
       <c r="C102" s="2">
-        <v>187.07</v>
+        <v>188.58</v>
       </c>
       <c r="D102" s="2">
-        <v>67291794321</v>
+        <v>67834963239</v>
       </c>
       <c r="E102" s="3">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5174,13 +5174,13 @@
         <v>611</v>
       </c>
       <c r="C103" s="2">
-        <v>2153.2</v>
+        <v>2153.83</v>
       </c>
       <c r="D103" s="2">
-        <v>59406443488</v>
+        <v>59423825087</v>
       </c>
       <c r="E103" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5191,13 +5191,13 @@
         <v>612</v>
       </c>
       <c r="C104" s="2">
-        <v>259.15</v>
+        <v>257.99</v>
       </c>
       <c r="D104" s="2">
-        <v>36685736324</v>
+        <v>36521524654</v>
       </c>
       <c r="E104" s="3">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5208,13 +5208,13 @@
         <v>613</v>
       </c>
       <c r="C105" s="2">
-        <v>59.35</v>
+        <v>60.4</v>
       </c>
       <c r="D105" s="2">
-        <v>17309791019</v>
+        <v>17616029950</v>
       </c>
       <c r="E105" s="3">
-        <v>33</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5225,13 +5225,13 @@
         <v>614</v>
       </c>
       <c r="C106" s="2">
-        <v>66.33</v>
+        <v>68.815</v>
       </c>
       <c r="D106" s="2">
-        <v>36399864883</v>
+        <v>37763556489</v>
       </c>
       <c r="E106" s="3">
-        <v>29</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5242,13 +5242,13 @@
         <v>615</v>
       </c>
       <c r="C107" s="2">
-        <v>29.44</v>
+        <v>29.75</v>
       </c>
       <c r="D107" s="2">
-        <v>18577500914</v>
+        <v>18773119979</v>
       </c>
       <c r="E107" s="3">
-        <v>67</v>
+        <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5259,13 +5259,13 @@
         <v>616</v>
       </c>
       <c r="C108" s="2">
-        <v>116.07</v>
+        <v>117.735</v>
       </c>
       <c r="D108" s="2">
-        <v>44316247375</v>
+        <v>44951954723</v>
       </c>
       <c r="E108" s="3">
-        <v>17</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5282,7 +5282,7 @@
         <v>8892528027</v>
       </c>
       <c r="E109" s="3">
-        <v>88</v>
+        <v>889</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5293,13 +5293,13 @@
         <v>618</v>
       </c>
       <c r="C110" s="2">
-        <v>393.25</v>
+        <v>390.06</v>
       </c>
       <c r="D110" s="2">
-        <v>19468991113</v>
+        <v>19311060835</v>
       </c>
       <c r="E110" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5310,13 +5310,13 @@
         <v>619</v>
       </c>
       <c r="C111" s="2">
-        <v>108.75</v>
+        <v>109.75</v>
       </c>
       <c r="D111" s="2">
-        <v>131593882429</v>
+        <v>132803941118</v>
       </c>
       <c r="E111" s="3">
-        <v>18</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5327,13 +5327,13 @@
         <v>620</v>
       </c>
       <c r="C112" s="2">
-        <v>553.83</v>
+        <v>553.2</v>
       </c>
       <c r="D112" s="2">
-        <v>245402073000</v>
+        <v>245122920000</v>
       </c>
       <c r="E112" s="3">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5344,13 +5344,13 @@
         <v>621</v>
       </c>
       <c r="C113" s="2">
-        <v>12.47</v>
+        <v>12.25</v>
       </c>
       <c r="D113" s="2">
-        <v>10634376246</v>
+        <v>10446760947</v>
       </c>
       <c r="E113" s="3">
-        <v>158</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5361,13 +5361,13 @@
         <v>622</v>
       </c>
       <c r="C114" s="2">
-        <v>44.86</v>
+        <v>45.31</v>
       </c>
       <c r="D114" s="2">
-        <v>13372402410</v>
+        <v>13506543762</v>
       </c>
       <c r="E114" s="3">
-        <v>44</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5378,13 +5378,13 @@
         <v>623</v>
       </c>
       <c r="C115" s="2">
-        <v>93.52</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="D115" s="2">
-        <v>44646448000</v>
+        <v>44059246000</v>
       </c>
       <c r="E115" s="3">
-        <v>21</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5395,13 +5395,13 @@
         <v>624</v>
       </c>
       <c r="C116" s="2">
-        <v>227.63</v>
+        <v>235.18</v>
       </c>
       <c r="D116" s="2">
-        <v>221711620000</v>
+        <v>229065320000</v>
       </c>
       <c r="E116" s="3">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5412,13 +5412,13 @@
         <v>625</v>
       </c>
       <c r="C117" s="2">
-        <v>51.27</v>
+        <v>51.99</v>
       </c>
       <c r="D117" s="2">
-        <v>208928231607</v>
+        <v>211862273478</v>
       </c>
       <c r="E117" s="3">
-        <v>38</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5429,13 +5429,13 @@
         <v>626</v>
       </c>
       <c r="C118" s="2">
-        <v>33.74</v>
+        <v>33.865</v>
       </c>
       <c r="D118" s="2">
-        <v>68595273068</v>
+        <v>68849404934</v>
       </c>
       <c r="E118" s="3">
-        <v>58</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5446,13 +5446,13 @@
         <v>627</v>
       </c>
       <c r="C119" s="2">
-        <v>503.865</v>
+        <v>499.51</v>
       </c>
       <c r="D119" s="2">
-        <v>51243979472</v>
+        <v>50801068116</v>
       </c>
       <c r="E119" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5469,7 +5469,7 @@
         <v>12072940000</v>
       </c>
       <c r="E120" s="3">
-        <v>180</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5480,13 +5480,13 @@
         <v>629</v>
       </c>
       <c r="C121" s="2">
-        <v>69.17</v>
+        <v>69.03</v>
       </c>
       <c r="D121" s="2">
-        <v>35103775000</v>
+        <v>35032725000</v>
       </c>
       <c r="E121" s="3">
-        <v>28</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5497,13 +5497,13 @@
         <v>630</v>
       </c>
       <c r="C122" s="2">
-        <v>55.1</v>
+        <v>56.195</v>
       </c>
       <c r="D122" s="2">
-        <v>39169102300</v>
+        <v>39947508235</v>
       </c>
       <c r="E122" s="3">
-        <v>35</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5520,7 +5520,7 @@
         <v>13183359916</v>
       </c>
       <c r="E123" s="3">
-        <v>19</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5531,13 +5531,13 @@
         <v>632</v>
       </c>
       <c r="C124" s="2">
-        <v>72.31</v>
+        <v>74.08</v>
       </c>
       <c r="D124" s="2">
-        <v>92703248214</v>
+        <v>94972432965</v>
       </c>
       <c r="E124" s="3">
-        <v>27</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5548,13 +5548,13 @@
         <v>633</v>
       </c>
       <c r="C125" s="2">
-        <v>153.75</v>
+        <v>154.82</v>
       </c>
       <c r="D125" s="2">
-        <v>291301436126</v>
+        <v>293328704657</v>
       </c>
       <c r="E125" s="3">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5571,7 +5571,7 @@
         <v>12877584384</v>
       </c>
       <c r="E126" s="3">
-        <v>30</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5582,13 +5582,13 @@
         <v>635</v>
       </c>
       <c r="C127" s="2">
-        <v>51.05</v>
+        <v>52.075</v>
       </c>
       <c r="D127" s="2">
-        <v>42674809491</v>
+        <v>43531649447</v>
       </c>
       <c r="E127" s="3">
-        <v>38</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5599,13 +5599,13 @@
         <v>636</v>
       </c>
       <c r="C128" s="2">
-        <v>48.37</v>
+        <v>48.47</v>
       </c>
       <c r="D128" s="2">
-        <v>31122146799</v>
+        <v>31186488636</v>
       </c>
       <c r="E128" s="3">
-        <v>40</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5616,13 +5616,13 @@
         <v>637</v>
       </c>
       <c r="C129" s="2">
-        <v>74.55</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="D129" s="2">
-        <v>34219700353</v>
+        <v>34316093875</v>
       </c>
       <c r="E129" s="3">
-        <v>26</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5633,13 +5633,13 @@
         <v>638</v>
       </c>
       <c r="C130" s="2">
-        <v>431.56</v>
+        <v>432.98</v>
       </c>
       <c r="D130" s="2">
-        <v>126530000370</v>
+        <v>126946333210</v>
       </c>
       <c r="E130" s="3">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5650,13 +5650,13 @@
         <v>639</v>
       </c>
       <c r="C131" s="2">
-        <v>121.7</v>
+        <v>122.315</v>
       </c>
       <c r="D131" s="2">
-        <v>30905232216</v>
+        <v>31061409026</v>
       </c>
       <c r="E131" s="3">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5667,13 +5667,13 @@
         <v>640</v>
       </c>
       <c r="C132" s="2">
-        <v>164.49</v>
+        <v>164.935</v>
       </c>
       <c r="D132" s="2">
-        <v>36079424941</v>
+        <v>36177031751</v>
       </c>
       <c r="E132" s="3">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5684,13 +5684,13 @@
         <v>641</v>
       </c>
       <c r="C133" s="2">
-        <v>140.36</v>
+        <v>141.4</v>
       </c>
       <c r="D133" s="2">
-        <v>15721610891</v>
+        <v>15838100456</v>
       </c>
       <c r="E133" s="3">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5701,13 +5701,13 @@
         <v>642</v>
       </c>
       <c r="C134" s="2">
-        <v>127.88</v>
+        <v>126.99</v>
       </c>
       <c r="D134" s="2">
-        <v>43616181475</v>
+        <v>43312628132</v>
       </c>
       <c r="E134" s="3">
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5718,13 +5718,13 @@
         <v>643</v>
       </c>
       <c r="C135" s="2">
-        <v>240.79</v>
+        <v>243.65</v>
       </c>
       <c r="D135" s="2">
-        <v>177678649403</v>
+        <v>179789039940</v>
       </c>
       <c r="E135" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5735,13 +5735,13 @@
         <v>644</v>
       </c>
       <c r="C136" s="2">
-        <v>85.95</v>
+        <v>87.31</v>
       </c>
       <c r="D136" s="2">
-        <v>157056863719</v>
+        <v>159541998502</v>
       </c>
       <c r="E136" s="3">
-        <v>23</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5758,7 +5758,7 @@
         <v>12449494875</v>
       </c>
       <c r="E137" s="3">
-        <v>81</v>
+        <v>810</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5772,7 +5772,7 @@
         <v>24.42</v>
       </c>
       <c r="E138" s="3">
-        <v>81</v>
+        <v>810</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5783,13 +5783,13 @@
         <v>647</v>
       </c>
       <c r="C139" s="2">
-        <v>6.71</v>
+        <v>7.045</v>
       </c>
       <c r="D139" s="2">
-        <v>3561038582</v>
+        <v>3738825158</v>
       </c>
       <c r="E139" s="3">
-        <v>295</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5800,13 +5800,13 @@
         <v>648</v>
       </c>
       <c r="C140" s="2">
-        <v>117.31</v>
+        <v>118.63</v>
       </c>
       <c r="D140" s="2">
-        <v>34870626724</v>
+        <v>35262999303</v>
       </c>
       <c r="E140" s="3">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5817,13 +5817,13 @@
         <v>649</v>
       </c>
       <c r="C141" s="2">
-        <v>148.92</v>
+        <v>149.91</v>
       </c>
       <c r="D141" s="2">
-        <v>32819789747</v>
+        <v>33037971266</v>
       </c>
       <c r="E141" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5834,13 +5834,13 @@
         <v>650</v>
       </c>
       <c r="C142" s="2">
-        <v>150.34</v>
+        <v>149.08</v>
       </c>
       <c r="D142" s="2">
-        <v>21025244141</v>
+        <v>20849031506</v>
       </c>
       <c r="E142" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5851,13 +5851,13 @@
         <v>651</v>
       </c>
       <c r="C143" s="2">
-        <v>52.98</v>
+        <v>52.77</v>
       </c>
       <c r="D143" s="2">
-        <v>37473538475</v>
+        <v>37325002365</v>
       </c>
       <c r="E143" s="3">
-        <v>37</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5868,13 +5868,13 @@
         <v>652</v>
       </c>
       <c r="C144" s="2">
-        <v>392.29</v>
+        <v>393.46</v>
       </c>
       <c r="D144" s="2">
-        <v>13863148079</v>
+        <v>13904494744</v>
       </c>
       <c r="E144" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5891,7 +5891,7 @@
         <v>18556648911</v>
       </c>
       <c r="E145" s="3">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5902,13 +5902,13 @@
         <v>654</v>
       </c>
       <c r="C146" s="2">
-        <v>170.09</v>
+        <v>171.06</v>
       </c>
       <c r="D146" s="2">
-        <v>20568891001</v>
+        <v>20686192572</v>
       </c>
       <c r="E146" s="3">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5919,13 +5919,13 @@
         <v>655</v>
       </c>
       <c r="C147" s="2">
-        <v>109.31</v>
+        <v>110.68</v>
       </c>
       <c r="D147" s="2">
-        <v>22529793810</v>
+        <v>22812163378</v>
       </c>
       <c r="E147" s="3">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5936,13 +5936,13 @@
         <v>656</v>
       </c>
       <c r="C148" s="2">
-        <v>90.91</v>
+        <v>92.11</v>
       </c>
       <c r="D148" s="2">
-        <v>70059947774</v>
+        <v>70984729837</v>
       </c>
       <c r="E148" s="3">
-        <v>21</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5953,13 +5953,13 @@
         <v>657</v>
       </c>
       <c r="C149" s="2">
-        <v>106.16</v>
+        <v>104.8</v>
       </c>
       <c r="D149" s="2">
-        <v>9628712000</v>
+        <v>9505360000</v>
       </c>
       <c r="E149" s="3">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5970,13 +5970,13 @@
         <v>658</v>
       </c>
       <c r="C150" s="2">
-        <v>50.51</v>
+        <v>50.675</v>
       </c>
       <c r="D150" s="2">
-        <v>33033540000</v>
+        <v>33141450000</v>
       </c>
       <c r="E150" s="3">
-        <v>39</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5987,13 +5987,13 @@
         <v>659</v>
       </c>
       <c r="C151" s="2">
-        <v>28.3</v>
+        <v>28.32</v>
       </c>
       <c r="D151" s="2">
-        <v>5963351322</v>
+        <v>5967565705</v>
       </c>
       <c r="E151" s="3">
-        <v>69</v>
+        <v>699</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6004,13 +6004,13 @@
         <v>660</v>
       </c>
       <c r="C152" s="2">
-        <v>137.98</v>
+        <v>132.93</v>
       </c>
       <c r="D152" s="2">
-        <v>53485963262</v>
+        <v>51528403365</v>
       </c>
       <c r="E152" s="3">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6021,13 +6021,13 @@
         <v>661</v>
       </c>
       <c r="C153" s="2">
-        <v>138.82</v>
+        <v>139.51</v>
       </c>
       <c r="D153" s="2">
-        <v>16153684907</v>
+        <v>16233976238</v>
       </c>
       <c r="E153" s="3">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6038,13 +6038,13 @@
         <v>662</v>
       </c>
       <c r="C154" s="2">
-        <v>48.07</v>
+        <v>48.33</v>
       </c>
       <c r="D154" s="2">
-        <v>25704802783</v>
+        <v>25843834377</v>
       </c>
       <c r="E154" s="3">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6055,13 +6055,13 @@
         <v>663</v>
       </c>
       <c r="C155" s="2">
-        <v>188.61</v>
+        <v>186.86</v>
       </c>
       <c r="D155" s="2">
-        <v>53701220266</v>
+        <v>53202958586</v>
       </c>
       <c r="E155" s="3">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6072,13 +6072,13 @@
         <v>664</v>
       </c>
       <c r="C156" s="2">
-        <v>92.14</v>
+        <v>93.14</v>
       </c>
       <c r="D156" s="2">
-        <v>31930214028</v>
+        <v>32276754228</v>
       </c>
       <c r="E156" s="3">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6089,13 +6089,13 @@
         <v>665</v>
       </c>
       <c r="C157" s="2">
-        <v>237.81</v>
+        <v>238.98</v>
       </c>
       <c r="D157" s="2">
-        <v>29165911139</v>
+        <v>29309404331</v>
       </c>
       <c r="E157" s="3">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6106,13 +6106,13 @@
         <v>666</v>
       </c>
       <c r="C158" s="2">
-        <v>69.37</v>
+        <v>70.745</v>
       </c>
       <c r="D158" s="2">
-        <v>26567532306</v>
+        <v>27094133962</v>
       </c>
       <c r="E158" s="3">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6123,13 +6123,13 @@
         <v>667</v>
       </c>
       <c r="C159" s="2">
-        <v>188.18</v>
+        <v>188.38</v>
       </c>
       <c r="D159" s="2">
-        <v>67161442000</v>
+        <v>67232822000</v>
       </c>
       <c r="E159" s="3">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6140,13 +6140,13 @@
         <v>668</v>
       </c>
       <c r="C160" s="2">
-        <v>87.98999999999999</v>
+        <v>88.53</v>
       </c>
       <c r="D160" s="2">
-        <v>10484167058</v>
+        <v>10548509031</v>
       </c>
       <c r="E160" s="3">
-        <v>22</v>
+        <v>223</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6157,13 +6157,13 @@
         <v>669</v>
       </c>
       <c r="C161" s="2">
-        <v>91.8</v>
+        <v>91.37</v>
       </c>
       <c r="D161" s="2">
-        <v>52463700000</v>
+        <v>52217955000</v>
       </c>
       <c r="E161" s="3">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6174,13 +6174,13 @@
         <v>670</v>
       </c>
       <c r="C162" s="2">
-        <v>122.77</v>
+        <v>123.42</v>
       </c>
       <c r="D162" s="2">
-        <v>71803095356</v>
+        <v>72183253472</v>
       </c>
       <c r="E162" s="3">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6191,13 +6191,13 @@
         <v>671</v>
       </c>
       <c r="C163" s="2">
-        <v>796.145</v>
+        <v>808.33</v>
       </c>
       <c r="D163" s="2">
-        <v>74459911743</v>
+        <v>75599520765</v>
       </c>
       <c r="E163" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6208,13 +6208,13 @@
         <v>672</v>
       </c>
       <c r="C164" s="2">
-        <v>67.36</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="D164" s="2">
-        <v>25523018504</v>
+        <v>25685947512</v>
       </c>
       <c r="E164" s="3">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6225,13 +6225,13 @@
         <v>673</v>
       </c>
       <c r="C165" s="2">
-        <v>71.41</v>
+        <v>72.42</v>
       </c>
       <c r="D165" s="2">
-        <v>24910795794</v>
+        <v>25263126053</v>
       </c>
       <c r="E165" s="3">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6242,13 +6242,13 @@
         <v>674</v>
       </c>
       <c r="C166" s="2">
-        <v>239.79</v>
+        <v>242.12</v>
       </c>
       <c r="D166" s="2">
-        <v>15390109221</v>
+        <v>15539652382</v>
       </c>
       <c r="E166" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6265,7 +6265,7 @@
         <v>10891188960</v>
       </c>
       <c r="E167" s="3">
-        <v>40</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6276,13 +6276,13 @@
         <v>676</v>
       </c>
       <c r="C168" s="2">
-        <v>210.34</v>
+        <v>209.225</v>
       </c>
       <c r="D168" s="2">
-        <v>83841524000</v>
+        <v>83397085000</v>
       </c>
       <c r="E168" s="3">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6293,13 +6293,13 @@
         <v>677</v>
       </c>
       <c r="C169" s="2">
-        <v>99</v>
+        <v>100.73</v>
       </c>
       <c r="D169" s="2">
-        <v>20933218449</v>
+        <v>21299021155</v>
       </c>
       <c r="E169" s="3">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6310,13 +6310,13 @@
         <v>678</v>
       </c>
       <c r="C170" s="2">
-        <v>58.96</v>
+        <v>59.67</v>
       </c>
       <c r="D170" s="2">
-        <v>13541988635</v>
+        <v>13705062107</v>
       </c>
       <c r="E170" s="3">
-        <v>33</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6327,13 +6327,13 @@
         <v>679</v>
       </c>
       <c r="C171" s="2">
-        <v>91.98999999999999</v>
+        <v>91.73</v>
       </c>
       <c r="D171" s="2">
-        <v>55766013598</v>
+        <v>55608396862</v>
       </c>
       <c r="E171" s="3">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6344,13 +6344,13 @@
         <v>680</v>
       </c>
       <c r="C172" s="2">
-        <v>41.28</v>
+        <v>41.77</v>
       </c>
       <c r="D172" s="2">
-        <v>41055808237</v>
+        <v>41543147046</v>
       </c>
       <c r="E172" s="3">
-        <v>47</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6361,13 +6361,13 @@
         <v>681</v>
       </c>
       <c r="C173" s="2">
-        <v>123.08</v>
+        <v>123.63</v>
       </c>
       <c r="D173" s="2">
-        <v>18805661637</v>
+        <v>18889697337</v>
       </c>
       <c r="E173" s="3">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6378,13 +6378,13 @@
         <v>682</v>
       </c>
       <c r="C174" s="2">
-        <v>120.99</v>
+        <v>119.905</v>
       </c>
       <c r="D174" s="2">
-        <v>17253294990</v>
+        <v>17098572905</v>
       </c>
       <c r="E174" s="3">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6395,13 +6395,13 @@
         <v>683</v>
       </c>
       <c r="C175" s="2">
-        <v>150.31</v>
+        <v>151.46</v>
       </c>
       <c r="D175" s="2">
-        <v>20299295005</v>
+        <v>20454601965</v>
       </c>
       <c r="E175" s="3">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6412,13 +6412,13 @@
         <v>684</v>
       </c>
       <c r="C176" s="2">
-        <v>14.17</v>
+        <v>14.145</v>
       </c>
       <c r="D176" s="2">
-        <v>55686941603</v>
+        <v>55588693646</v>
       </c>
       <c r="E176" s="3">
-        <v>139</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6429,13 +6429,13 @@
         <v>685</v>
       </c>
       <c r="C177" s="2">
-        <v>138.77</v>
+        <v>139.66</v>
       </c>
       <c r="D177" s="2">
-        <v>25130344717</v>
+        <v>25291517931</v>
       </c>
       <c r="E177" s="3">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6446,13 +6446,13 @@
         <v>686</v>
       </c>
       <c r="C178" s="2">
-        <v>56.8</v>
+        <v>56.82</v>
       </c>
       <c r="D178" s="2">
-        <v>32434187170</v>
+        <v>32445607658</v>
       </c>
       <c r="E178" s="3">
-        <v>34</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6469,7 +6469,7 @@
         <v>561210585170</v>
       </c>
       <c r="E179" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6483,7 +6483,7 @@
         <v>57.62</v>
       </c>
       <c r="E180" s="3">
-        <v>34</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6494,13 +6494,13 @@
         <v>689</v>
       </c>
       <c r="C181" s="2">
-        <v>40.41</v>
+        <v>39.92</v>
       </c>
       <c r="D181" s="2">
-        <v>57919098575</v>
+        <v>57216788298</v>
       </c>
       <c r="E181" s="3">
-        <v>49</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6511,13 +6511,13 @@
         <v>690</v>
       </c>
       <c r="C182" s="2">
-        <v>261.97</v>
+        <v>259.84</v>
       </c>
       <c r="D182" s="2">
-        <v>66078563042</v>
+        <v>65268492961</v>
       </c>
       <c r="E182" s="3">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6528,13 +6528,13 @@
         <v>691</v>
       </c>
       <c r="C183" s="2">
-        <v>38.85</v>
+        <v>39.235</v>
       </c>
       <c r="D183" s="2">
-        <v>22254712866</v>
+        <v>22475255065</v>
       </c>
       <c r="E183" s="3">
-        <v>50</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>692</v>
       </c>
       <c r="C184" s="2">
-        <v>149.73</v>
+        <v>149.53</v>
       </c>
       <c r="D184" s="2">
-        <v>9053874988</v>
+        <v>9041781386</v>
       </c>
       <c r="E184" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>693</v>
       </c>
       <c r="C185" s="2">
-        <v>60.17</v>
+        <v>60.75</v>
       </c>
       <c r="D185" s="2">
-        <v>35646905288</v>
+        <v>35990518469</v>
       </c>
       <c r="E185" s="3">
-        <v>32</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6582,7 +6582,7 @@
         <v>114.23</v>
       </c>
       <c r="E186" s="3">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6593,13 +6593,13 @@
         <v>695</v>
       </c>
       <c r="C187" s="2">
-        <v>27.96</v>
+        <v>28.27</v>
       </c>
       <c r="D187" s="2">
-        <v>19032820087</v>
+        <v>19243842055</v>
       </c>
       <c r="E187" s="3">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6616,7 +6616,7 @@
         <v>7565007314</v>
       </c>
       <c r="E188" s="3">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6627,13 +6627,13 @@
         <v>697</v>
       </c>
       <c r="C189" s="2">
-        <v>37.77</v>
+        <v>37.8</v>
       </c>
       <c r="D189" s="2">
-        <v>4953503735</v>
+        <v>4957438210</v>
       </c>
       <c r="E189" s="3">
-        <v>52</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6644,13 +6644,13 @@
         <v>698</v>
       </c>
       <c r="C190" s="2">
-        <v>259.73</v>
+        <v>258.5</v>
       </c>
       <c r="D190" s="2">
-        <v>19176956766</v>
+        <v>19086140700</v>
       </c>
       <c r="E190" s="3">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6661,13 +6661,13 @@
         <v>699</v>
       </c>
       <c r="C191" s="2">
-        <v>95.56999999999999</v>
+        <v>96.02</v>
       </c>
       <c r="D191" s="2">
-        <v>11949995484</v>
+        <v>12006263120</v>
       </c>
       <c r="E191" s="3">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6678,13 +6678,13 @@
         <v>700</v>
       </c>
       <c r="C192" s="2">
-        <v>31.87</v>
+        <v>31.925</v>
       </c>
       <c r="D192" s="2">
-        <v>16654453841</v>
+        <v>16684632901</v>
       </c>
       <c r="E192" s="3">
-        <v>62</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6698,10 +6698,10 @@
         <v>34</v>
       </c>
       <c r="D193" s="2">
-        <v>16657066718</v>
+        <v>16655888822</v>
       </c>
       <c r="E193" s="3">
-        <v>58</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6718,7 +6718,7 @@
         <v>630560307</v>
       </c>
       <c r="E194" s="3">
-        <v>564</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6729,13 +6729,13 @@
         <v>703</v>
       </c>
       <c r="C195" s="2">
-        <v>101.05</v>
+        <v>101.69</v>
       </c>
       <c r="D195" s="2">
-        <v>8237130867</v>
+        <v>8289300721</v>
       </c>
       <c r="E195" s="3">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6746,13 +6746,13 @@
         <v>704</v>
       </c>
       <c r="C196" s="2">
-        <v>18.02</v>
+        <v>17.64</v>
       </c>
       <c r="D196" s="2">
-        <v>7956965170</v>
+        <v>7789171232</v>
       </c>
       <c r="E196" s="3">
-        <v>109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6763,13 +6763,13 @@
         <v>705</v>
       </c>
       <c r="C197" s="2">
-        <v>80.25</v>
+        <v>80.19</v>
       </c>
       <c r="D197" s="2">
-        <v>63011991278</v>
+        <v>62964879509</v>
       </c>
       <c r="E197" s="3">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6780,13 +6780,13 @@
         <v>706</v>
       </c>
       <c r="C198" s="2">
-        <v>74.56</v>
+        <v>74.23</v>
       </c>
       <c r="D198" s="2">
-        <v>26225897388</v>
+        <v>26109822467</v>
       </c>
       <c r="E198" s="3">
-        <v>26</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6797,13 +6797,13 @@
         <v>707</v>
       </c>
       <c r="C199" s="2">
-        <v>213.52</v>
+        <v>213.83</v>
       </c>
       <c r="D199" s="2">
-        <v>58576137526</v>
+        <v>58661181562</v>
       </c>
       <c r="E199" s="3">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6814,13 +6814,13 @@
         <v>708</v>
       </c>
       <c r="C200" s="2">
-        <v>111.06</v>
+        <v>109.18</v>
       </c>
       <c r="D200" s="2">
-        <v>120939900821</v>
+        <v>118892655966</v>
       </c>
       <c r="E200" s="3">
-        <v>17</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6831,13 +6831,13 @@
         <v>709</v>
       </c>
       <c r="C201" s="2">
-        <v>78.25</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="D201" s="2">
-        <v>97605347914</v>
+        <v>98453547743</v>
       </c>
       <c r="E201" s="3">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6848,13 +6848,13 @@
         <v>710</v>
       </c>
       <c r="C202" s="2">
-        <v>74.31</v>
+        <v>74.66</v>
       </c>
       <c r="D202" s="2">
-        <v>43484929781</v>
+        <v>43689743742</v>
       </c>
       <c r="E202" s="3">
-        <v>26</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>711</v>
       </c>
       <c r="C203" s="2">
-        <v>112.31</v>
+        <v>112.4</v>
       </c>
       <c r="D203" s="2">
-        <v>10731764530</v>
+        <v>10740364466</v>
       </c>
       <c r="E203" s="3">
-        <v>17</v>
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6882,13 +6882,13 @@
         <v>712</v>
       </c>
       <c r="C204" s="2">
-        <v>33.63</v>
+        <v>33.56</v>
       </c>
       <c r="D204" s="2">
-        <v>28589888547</v>
+        <v>28530379412</v>
       </c>
       <c r="E204" s="3">
-        <v>58</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6899,13 +6899,13 @@
         <v>713</v>
       </c>
       <c r="C205" s="2">
-        <v>39.13</v>
+        <v>39.315</v>
       </c>
       <c r="D205" s="2">
-        <v>54395532516</v>
+        <v>54652705363</v>
       </c>
       <c r="E205" s="3">
-        <v>50</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6916,13 +6916,13 @@
         <v>714</v>
       </c>
       <c r="C206" s="2">
-        <v>124.09</v>
+        <v>124.435</v>
       </c>
       <c r="D206" s="2">
-        <v>1463706432814</v>
+        <v>1468292965776</v>
       </c>
       <c r="E206" s="3">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6933,13 +6933,13 @@
         <v>715</v>
       </c>
       <c r="C207" s="2">
-        <v>123.76</v>
+        <v>124.055</v>
       </c>
       <c r="D207" s="2">
-        <v>1464615544436</v>
+        <v>1467593985490</v>
       </c>
       <c r="E207" s="3">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6950,13 +6950,13 @@
         <v>716</v>
       </c>
       <c r="C208" s="2">
-        <v>167.27</v>
+        <v>168.02</v>
       </c>
       <c r="D208" s="2">
-        <v>23504051103</v>
+        <v>23609437833</v>
       </c>
       <c r="E208" s="3">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6967,13 +6967,13 @@
         <v>717</v>
       </c>
       <c r="C209" s="2">
-        <v>113.66</v>
+        <v>113.97</v>
       </c>
       <c r="D209" s="2">
-        <v>29773593551</v>
+        <v>29854799024</v>
       </c>
       <c r="E209" s="3">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6984,13 +6984,13 @@
         <v>718</v>
       </c>
       <c r="C210" s="2">
-        <v>9.25</v>
+        <v>9.305</v>
       </c>
       <c r="D210" s="2">
-        <v>3404524059</v>
+        <v>3424767175</v>
       </c>
       <c r="E210" s="3">
-        <v>214</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7001,13 +7001,13 @@
         <v>719</v>
       </c>
       <c r="C211" s="2">
-        <v>107.45</v>
+        <v>106.56</v>
       </c>
       <c r="D211" s="2">
-        <v>20554162721</v>
+        <v>20383914188</v>
       </c>
       <c r="E211" s="3">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7018,13 +7018,13 @@
         <v>720</v>
       </c>
       <c r="C212" s="2">
-        <v>337.27</v>
+        <v>340.95</v>
       </c>
       <c r="D212" s="2">
-        <v>112124764953</v>
+        <v>113348173899</v>
       </c>
       <c r="E212" s="3">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7035,13 +7035,13 @@
         <v>721</v>
       </c>
       <c r="C213" s="2">
-        <v>760.21</v>
+        <v>761.95</v>
       </c>
       <c r="D213" s="2">
-        <v>38137427702</v>
+        <v>38224718220</v>
       </c>
       <c r="E213" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7052,13 +7052,13 @@
         <v>722</v>
       </c>
       <c r="C214" s="2">
-        <v>38.11</v>
+        <v>37.485</v>
       </c>
       <c r="D214" s="2">
-        <v>34382647639</v>
+        <v>33818775827</v>
       </c>
       <c r="E214" s="3">
-        <v>51</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7069,13 +7069,13 @@
         <v>723</v>
       </c>
       <c r="C215" s="2">
-        <v>63.21</v>
+        <v>64.14</v>
       </c>
       <c r="D215" s="2">
-        <v>8761461047</v>
+        <v>8890367213</v>
       </c>
       <c r="E215" s="3">
-        <v>31</v>
+        <v>308</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7086,13 +7086,13 @@
         <v>724</v>
       </c>
       <c r="C216" s="2">
-        <v>11.65</v>
+        <v>11.73</v>
       </c>
       <c r="D216" s="2">
-        <v>16818114354</v>
+        <v>16933603551</v>
       </c>
       <c r="E216" s="3">
-        <v>169</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7103,13 +7103,13 @@
         <v>725</v>
       </c>
       <c r="C217" s="2">
-        <v>4.75</v>
+        <v>4.845</v>
       </c>
       <c r="D217" s="2">
-        <v>1660268764</v>
+        <v>1693474139</v>
       </c>
       <c r="E217" s="3">
-        <v>416</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7120,13 +7120,13 @@
         <v>726</v>
       </c>
       <c r="C218" s="2">
-        <v>289.74</v>
+        <v>281.98</v>
       </c>
       <c r="D218" s="2">
-        <v>79733492652</v>
+        <v>77598019804</v>
       </c>
       <c r="E218" s="3">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7137,13 +7137,13 @@
         <v>727</v>
       </c>
       <c r="C219" s="2">
-        <v>316.76</v>
+        <v>319.59</v>
       </c>
       <c r="D219" s="2">
-        <v>318462942939</v>
+        <v>321308157387</v>
       </c>
       <c r="E219" s="3">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7154,13 +7154,13 @@
         <v>728</v>
       </c>
       <c r="C220" s="2">
-        <v>136.65</v>
+        <v>136.565</v>
       </c>
       <c r="D220" s="2">
-        <v>41958640632</v>
+        <v>41932541221</v>
       </c>
       <c r="E220" s="3">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7177,7 +7177,7 @@
         <v>5931624949</v>
       </c>
       <c r="E221" s="3">
-        <v>54</v>
+        <v>544</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7188,13 +7188,13 @@
         <v>730</v>
       </c>
       <c r="C222" s="2">
-        <v>72.64</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D222" s="2">
-        <v>22535450351</v>
+        <v>22523040962</v>
       </c>
       <c r="E222" s="3">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7205,13 +7205,13 @@
         <v>731</v>
       </c>
       <c r="C223" s="2">
-        <v>229.6</v>
+        <v>229.11</v>
       </c>
       <c r="D223" s="2">
-        <v>9158898291</v>
+        <v>9139351862</v>
       </c>
       <c r="E223" s="3">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7222,13 +7222,13 @@
         <v>732</v>
       </c>
       <c r="C224" s="2">
-        <v>149.97</v>
+        <v>149.56</v>
       </c>
       <c r="D224" s="2">
-        <v>39686041454</v>
+        <v>39577544575</v>
       </c>
       <c r="E224" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7239,13 +7239,13 @@
         <v>733</v>
       </c>
       <c r="C225" s="2">
-        <v>77.77</v>
+        <v>77.88500000000001</v>
       </c>
       <c r="D225" s="2">
-        <v>19140611792</v>
+        <v>19168915384</v>
       </c>
       <c r="E225" s="3">
-        <v>25</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7256,13 +7256,13 @@
         <v>734</v>
       </c>
       <c r="C226" s="2">
-        <v>205.305</v>
+        <v>205.45</v>
       </c>
       <c r="D226" s="2">
-        <v>136666764953</v>
+        <v>136763288082</v>
       </c>
       <c r="E226" s="3">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7273,13 +7273,13 @@
         <v>735</v>
       </c>
       <c r="C227" s="2">
-        <v>17.46</v>
+        <v>17.455</v>
       </c>
       <c r="D227" s="2">
-        <v>22549906707</v>
+        <v>22543449116</v>
       </c>
       <c r="E227" s="3">
-        <v>113</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7290,13 +7290,13 @@
         <v>736</v>
       </c>
       <c r="C228" s="2">
-        <v>32.78</v>
+        <v>33.18</v>
       </c>
       <c r="D228" s="2">
-        <v>32319641417</v>
+        <v>32714023863</v>
       </c>
       <c r="E228" s="3">
-        <v>60</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7307,13 +7307,13 @@
         <v>737</v>
       </c>
       <c r="C229" s="2">
-        <v>33.61</v>
+        <v>33.72</v>
       </c>
       <c r="D229" s="2">
-        <v>5118273239</v>
+        <v>5135024505</v>
       </c>
       <c r="E229" s="3">
-        <v>58</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7324,13 +7324,13 @@
         <v>738</v>
       </c>
       <c r="C230" s="2">
-        <v>39.33</v>
+        <v>39.445</v>
       </c>
       <c r="D230" s="2">
-        <v>21485979000</v>
+        <v>21548803500</v>
       </c>
       <c r="E230" s="3">
-        <v>50</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7341,13 +7341,13 @@
         <v>739</v>
       </c>
       <c r="C231" s="2">
-        <v>79.255</v>
+        <v>78.48</v>
       </c>
       <c r="D231" s="2">
-        <v>10382658775</v>
+        <v>10281131293</v>
       </c>
       <c r="E231" s="3">
-        <v>24</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7358,13 +7358,13 @@
         <v>740</v>
       </c>
       <c r="C232" s="2">
-        <v>17.69</v>
+        <v>17.73</v>
       </c>
       <c r="D232" s="2">
-        <v>12581849168</v>
+        <v>12610298799</v>
       </c>
       <c r="E232" s="3">
-        <v>111</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7375,13 +7375,13 @@
         <v>741</v>
       </c>
       <c r="C233" s="2">
-        <v>239.84</v>
+        <v>241.88</v>
       </c>
       <c r="D233" s="2">
-        <v>49186387200</v>
+        <v>49604750400</v>
       </c>
       <c r="E233" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7392,13 +7392,13 @@
         <v>742</v>
       </c>
       <c r="C234" s="2">
-        <v>440.73</v>
+        <v>450.21</v>
       </c>
       <c r="D234" s="2">
-        <v>55067007206</v>
+        <v>56251485749</v>
       </c>
       <c r="E234" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7409,13 +7409,13 @@
         <v>743</v>
       </c>
       <c r="C235" s="2">
-        <v>50.1</v>
+        <v>49.91</v>
       </c>
       <c r="D235" s="2">
-        <v>20705880753</v>
+        <v>20627355457</v>
       </c>
       <c r="E235" s="3">
-        <v>39</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7426,13 +7426,13 @@
         <v>744</v>
       </c>
       <c r="C236" s="2">
-        <v>135.36</v>
+        <v>135.68</v>
       </c>
       <c r="D236" s="2">
-        <v>122913027239</v>
+        <v>123203601772</v>
       </c>
       <c r="E236" s="3">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7443,13 +7443,13 @@
         <v>745</v>
       </c>
       <c r="C237" s="2">
-        <v>116.07</v>
+        <v>116.195</v>
       </c>
       <c r="D237" s="2">
-        <v>64983758047</v>
+        <v>65053741417</v>
       </c>
       <c r="E237" s="3">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7460,13 +7460,13 @@
         <v>746</v>
       </c>
       <c r="C238" s="2">
-        <v>547.73</v>
+        <v>549.035</v>
       </c>
       <c r="D238" s="2">
-        <v>45406817000</v>
+        <v>45515001500</v>
       </c>
       <c r="E238" s="3">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7477,13 +7477,13 @@
         <v>747</v>
       </c>
       <c r="C239" s="2">
-        <v>209.85</v>
+        <v>211.05</v>
       </c>
       <c r="D239" s="2">
-        <v>15859700405</v>
+        <v>15950392044</v>
       </c>
       <c r="E239" s="3">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7494,13 +7494,13 @@
         <v>748</v>
       </c>
       <c r="C240" s="2">
-        <v>82.31</v>
+        <v>83.19</v>
       </c>
       <c r="D240" s="2">
-        <v>20996569677</v>
+        <v>21221050072</v>
       </c>
       <c r="E240" s="3">
-        <v>24</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7511,13 +7511,13 @@
         <v>749</v>
       </c>
       <c r="C241" s="2">
-        <v>180.34</v>
+        <v>185.1</v>
       </c>
       <c r="D241" s="2">
-        <v>28511754000</v>
+        <v>29264310000</v>
       </c>
       <c r="E241" s="3">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7528,13 +7528,13 @@
         <v>750</v>
       </c>
       <c r="C242" s="2">
-        <v>61.68</v>
+        <v>62.37</v>
       </c>
       <c r="D242" s="2">
-        <v>13760086714</v>
+        <v>13914017645</v>
       </c>
       <c r="E242" s="3">
-        <v>32</v>
+        <v>317</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7551,7 +7551,7 @@
         <v>45801486922</v>
       </c>
       <c r="E243" s="3">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7562,13 +7562,13 @@
         <v>752</v>
       </c>
       <c r="C244" s="2">
-        <v>34.5</v>
+        <v>34.51</v>
       </c>
       <c r="D244" s="2">
-        <v>143899500000</v>
+        <v>143941210000</v>
       </c>
       <c r="E244" s="3">
-        <v>57</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7579,13 +7579,13 @@
         <v>753</v>
       </c>
       <c r="C245" s="2">
-        <v>495.67</v>
+        <v>507.13</v>
       </c>
       <c r="D245" s="2">
-        <v>138837167000</v>
+        <v>142047113000</v>
       </c>
       <c r="E245" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7596,13 +7596,13 @@
         <v>754</v>
       </c>
       <c r="C246" s="2">
-        <v>31.36</v>
+        <v>31.505</v>
       </c>
       <c r="D246" s="2">
-        <v>10883705732</v>
+        <v>10934028989</v>
       </c>
       <c r="E246" s="3">
-        <v>63</v>
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7613,13 +7613,13 @@
         <v>755</v>
       </c>
       <c r="C247" s="2">
-        <v>40.88</v>
+        <v>38.25</v>
       </c>
       <c r="D247" s="2">
-        <v>15781020210</v>
+        <v>14765753988</v>
       </c>
       <c r="E247" s="3">
-        <v>48</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7630,13 +7630,13 @@
         <v>756</v>
       </c>
       <c r="C248" s="2">
-        <v>134.06</v>
+        <v>131.79</v>
       </c>
       <c r="D248" s="2">
-        <v>6341786323</v>
+        <v>6234402652</v>
       </c>
       <c r="E248" s="3">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7647,13 +7647,13 @@
         <v>757</v>
       </c>
       <c r="C249" s="2">
-        <v>224.23</v>
+        <v>226.3</v>
       </c>
       <c r="D249" s="2">
-        <v>41605680971</v>
+        <v>41989767666</v>
       </c>
       <c r="E249" s="3">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7664,13 +7664,13 @@
         <v>758</v>
       </c>
       <c r="C250" s="2">
-        <v>67.02</v>
+        <v>65.64</v>
       </c>
       <c r="D250" s="2">
-        <v>27110897158</v>
+        <v>26552660243</v>
       </c>
       <c r="E250" s="3">
-        <v>29</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7681,13 +7681,13 @@
         <v>759</v>
       </c>
       <c r="C251" s="2">
-        <v>61.83</v>
+        <v>61.845</v>
       </c>
       <c r="D251" s="2">
-        <v>18031066784</v>
+        <v>18035441133</v>
       </c>
       <c r="E251" s="3">
-        <v>32</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7698,13 +7698,13 @@
         <v>760</v>
       </c>
       <c r="C252" s="2">
-        <v>355.01</v>
+        <v>350.45</v>
       </c>
       <c r="D252" s="2">
-        <v>124394818121</v>
+        <v>122797002931</v>
       </c>
       <c r="E252" s="3">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7715,13 +7715,13 @@
         <v>761</v>
       </c>
       <c r="C253" s="2">
-        <v>374.04</v>
+        <v>370.01</v>
       </c>
       <c r="D253" s="2">
-        <v>29586564000</v>
+        <v>29267791000</v>
       </c>
       <c r="E253" s="3">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7732,13 +7732,13 @@
         <v>762</v>
       </c>
       <c r="C254" s="2">
-        <v>254.46</v>
+        <v>253.56</v>
       </c>
       <c r="D254" s="2">
-        <v>77331101653</v>
+        <v>77057589150</v>
       </c>
       <c r="E254" s="3">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7749,13 +7749,13 @@
         <v>763</v>
       </c>
       <c r="C255" s="2">
-        <v>17.89</v>
+        <v>17.97</v>
       </c>
       <c r="D255" s="2">
-        <v>8196641353</v>
+        <v>8233294863</v>
       </c>
       <c r="E255" s="3">
-        <v>110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7766,13 +7766,13 @@
         <v>764</v>
       </c>
       <c r="C256" s="2">
-        <v>122.61</v>
+        <v>121.82</v>
       </c>
       <c r="D256" s="2">
-        <v>15553078500</v>
+        <v>15452867000</v>
       </c>
       <c r="E256" s="3">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7783,13 +7783,13 @@
         <v>765</v>
       </c>
       <c r="C257" s="2">
-        <v>188.01</v>
+        <v>192.65</v>
       </c>
       <c r="D257" s="2">
-        <v>19486809905</v>
+        <v>19967735377</v>
       </c>
       <c r="E257" s="3">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7800,13 +7800,13 @@
         <v>766</v>
       </c>
       <c r="C258" s="2">
-        <v>69.45</v>
+        <v>69.13</v>
       </c>
       <c r="D258" s="2">
-        <v>47649563674</v>
+        <v>47430012049</v>
       </c>
       <c r="E258" s="3">
-        <v>28</v>
+        <v>286</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7817,13 +7817,13 @@
         <v>767</v>
       </c>
       <c r="C259" s="2">
-        <v>170.07</v>
+        <v>171.04</v>
       </c>
       <c r="D259" s="2">
-        <v>12393903121</v>
+        <v>12464592167</v>
       </c>
       <c r="E259" s="3">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7834,13 +7834,13 @@
         <v>768</v>
       </c>
       <c r="C260" s="2">
-        <v>159.06</v>
+        <v>159.795</v>
       </c>
       <c r="D260" s="2">
-        <v>413354641970</v>
+        <v>415264711515</v>
       </c>
       <c r="E260" s="3">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7851,13 +7851,13 @@
         <v>769</v>
       </c>
       <c r="C261" s="2">
-        <v>29.94</v>
+        <v>29.96</v>
       </c>
       <c r="D261" s="2">
-        <v>9628467654</v>
+        <v>9634899496</v>
       </c>
       <c r="E261" s="3">
-        <v>66</v>
+        <v>660</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7868,13 +7868,13 @@
         <v>770</v>
       </c>
       <c r="C262" s="2">
-        <v>153.66</v>
+        <v>153.47</v>
       </c>
       <c r="D262" s="2">
-        <v>449038852293</v>
+        <v>448483617476</v>
       </c>
       <c r="E262" s="3">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7885,13 +7885,13 @@
         <v>771</v>
       </c>
       <c r="C263" s="2">
-        <v>66.62</v>
+        <v>66.705</v>
       </c>
       <c r="D263" s="2">
-        <v>22658128200</v>
+        <v>22687037550</v>
       </c>
       <c r="E263" s="3">
-        <v>29</v>
+        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7902,13 +7902,13 @@
         <v>772</v>
       </c>
       <c r="C264" s="2">
-        <v>10.71</v>
+        <v>11.08</v>
       </c>
       <c r="D264" s="2">
-        <v>10016682174</v>
+        <v>10362730017</v>
       </c>
       <c r="E264" s="3">
-        <v>184</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7919,13 +7919,13 @@
         <v>773</v>
       </c>
       <c r="C265" s="2">
-        <v>169.89</v>
+        <v>170.51</v>
       </c>
       <c r="D265" s="2">
-        <v>30302898237</v>
+        <v>30413486246</v>
       </c>
       <c r="E265" s="3">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7936,13 +7936,13 @@
         <v>774</v>
       </c>
       <c r="C266" s="2">
-        <v>35.5</v>
+        <v>35.975</v>
       </c>
       <c r="D266" s="2">
-        <v>43566930682</v>
+        <v>44149868487</v>
       </c>
       <c r="E266" s="3">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7953,13 +7953,13 @@
         <v>775</v>
       </c>
       <c r="C267" s="2">
-        <v>20.51</v>
+        <v>20.71</v>
       </c>
       <c r="D267" s="2">
-        <v>12713981003</v>
+        <v>12837959364</v>
       </c>
       <c r="E267" s="3">
-        <v>96</v>
+        <v>956</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7970,13 +7970,13 @@
         <v>776</v>
       </c>
       <c r="C268" s="2">
-        <v>483.93</v>
+        <v>471.79</v>
       </c>
       <c r="D268" s="2">
-        <v>66394664645</v>
+        <v>64729069975</v>
       </c>
       <c r="E268" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7987,13 +7987,13 @@
         <v>777</v>
       </c>
       <c r="C269" s="2">
-        <v>133.9</v>
+        <v>134.62</v>
       </c>
       <c r="D269" s="2">
-        <v>45175182000</v>
+        <v>45418095600</v>
       </c>
       <c r="E269" s="3">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8004,13 +8004,13 @@
         <v>778</v>
       </c>
       <c r="C270" s="2">
-        <v>17.28</v>
+        <v>17.34</v>
       </c>
       <c r="D270" s="2">
-        <v>38728172632</v>
+        <v>38862645454</v>
       </c>
       <c r="E270" s="3">
-        <v>114</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8021,13 +8021,13 @@
         <v>779</v>
       </c>
       <c r="C271" s="2">
-        <v>85.81</v>
+        <v>86.78</v>
       </c>
       <c r="D271" s="2">
-        <v>13575142000</v>
+        <v>13728596000</v>
       </c>
       <c r="E271" s="3">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8038,13 +8038,13 @@
         <v>780</v>
       </c>
       <c r="C272" s="2">
-        <v>60.57</v>
+        <v>61.285</v>
       </c>
       <c r="D272" s="2">
-        <v>261939700908</v>
+        <v>265031774313</v>
       </c>
       <c r="E272" s="3">
-        <v>32</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8055,13 +8055,13 @@
         <v>781</v>
       </c>
       <c r="C273" s="2">
-        <v>46.21</v>
+        <v>46.475</v>
       </c>
       <c r="D273" s="2">
-        <v>33167020479</v>
+        <v>33357223042</v>
       </c>
       <c r="E273" s="3">
-        <v>42</v>
+        <v>426</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8072,13 +8072,13 @@
         <v>782</v>
       </c>
       <c r="C274" s="2">
-        <v>25.19</v>
+        <v>25.52</v>
       </c>
       <c r="D274" s="2">
-        <v>2785778700</v>
+        <v>2822273618</v>
       </c>
       <c r="E274" s="3">
-        <v>78</v>
+        <v>775</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8095,7 +8095,7 @@
         <v>26710947380</v>
       </c>
       <c r="E275" s="3">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8106,13 +8106,13 @@
         <v>784</v>
       </c>
       <c r="C276" s="2">
-        <v>60.34</v>
+        <v>60.55</v>
       </c>
       <c r="D276" s="2">
-        <v>13751376543</v>
+        <v>13799235162</v>
       </c>
       <c r="E276" s="3">
-        <v>32</v>
+        <v>327</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8129,7 +8129,7 @@
         <v>21957908112</v>
       </c>
       <c r="E277" s="3">
-        <v>24</v>
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8140,13 +8140,13 @@
         <v>786</v>
       </c>
       <c r="C278" s="2">
-        <v>90.34999999999999</v>
+        <v>90.28</v>
       </c>
       <c r="D278" s="2">
-        <v>12393062302</v>
+        <v>12383460594</v>
       </c>
       <c r="E278" s="3">
-        <v>21</v>
+        <v>219</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8157,13 +8157,13 @@
         <v>787</v>
       </c>
       <c r="C279" s="2">
-        <v>30.05</v>
+        <v>29.965</v>
       </c>
       <c r="D279" s="2">
-        <v>4000009259</v>
+        <v>3988694757</v>
       </c>
       <c r="E279" s="3">
-        <v>65</v>
+        <v>660</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8174,13 +8174,13 @@
         <v>788</v>
       </c>
       <c r="C280" s="2">
-        <v>130.99</v>
+        <v>129.795</v>
       </c>
       <c r="D280" s="2">
-        <v>37217943749</v>
+        <v>36853051935</v>
       </c>
       <c r="E280" s="3">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8191,13 +8191,13 @@
         <v>789</v>
       </c>
       <c r="C281" s="2">
-        <v>212.72</v>
+        <v>215.05</v>
       </c>
       <c r="D281" s="2">
-        <v>18846992000</v>
+        <v>19053430000</v>
       </c>
       <c r="E281" s="3">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8208,13 +8208,13 @@
         <v>790</v>
       </c>
       <c r="C282" s="2">
-        <v>196.31</v>
+        <v>196.99</v>
       </c>
       <c r="D282" s="2">
-        <v>37191592831</v>
+        <v>37320421129</v>
       </c>
       <c r="E282" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8225,13 +8225,13 @@
         <v>791</v>
       </c>
       <c r="C283" s="2">
-        <v>384.27</v>
+        <v>379.005</v>
       </c>
       <c r="D283" s="2">
-        <v>188421871617</v>
+        <v>185840246317</v>
       </c>
       <c r="E283" s="3">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8242,13 +8242,13 @@
         <v>792</v>
       </c>
       <c r="C284" s="2">
-        <v>58.16</v>
+        <v>57.84</v>
       </c>
       <c r="D284" s="2">
-        <v>15545568778</v>
+        <v>15460036074</v>
       </c>
       <c r="E284" s="3">
-        <v>34</v>
+        <v>342</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8259,13 +8259,13 @@
         <v>793</v>
       </c>
       <c r="C285" s="2">
-        <v>451.2</v>
+        <v>450.885</v>
       </c>
       <c r="D285" s="2">
-        <v>428311947370</v>
+        <v>428012926396</v>
       </c>
       <c r="E285" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8276,13 +8276,13 @@
         <v>794</v>
       </c>
       <c r="C286" s="2">
-        <v>455.7</v>
+        <v>451.125</v>
       </c>
       <c r="D286" s="2">
-        <v>115407188402</v>
+        <v>114248557972</v>
       </c>
       <c r="E286" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8293,13 +8293,13 @@
         <v>795</v>
       </c>
       <c r="C287" s="2">
-        <v>26.94</v>
+        <v>27.245</v>
       </c>
       <c r="D287" s="2">
-        <v>4567909789</v>
+        <v>4619625174</v>
       </c>
       <c r="E287" s="3">
-        <v>73</v>
+        <v>726</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8310,13 +8310,13 @@
         <v>796</v>
       </c>
       <c r="C288" s="2">
-        <v>53.02</v>
+        <v>53.775</v>
       </c>
       <c r="D288" s="2">
-        <v>13328580520</v>
+        <v>13518378300</v>
       </c>
       <c r="E288" s="3">
-        <v>37</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8327,13 +8327,13 @@
         <v>797</v>
       </c>
       <c r="C289" s="2">
-        <v>229.91</v>
+        <v>231.545</v>
       </c>
       <c r="D289" s="2">
-        <v>134722841820</v>
+        <v>135680920400</v>
       </c>
       <c r="E289" s="3">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8344,13 +8344,13 @@
         <v>798</v>
       </c>
       <c r="C290" s="2">
-        <v>655.87</v>
+        <v>642</v>
       </c>
       <c r="D290" s="2">
-        <v>88109886682</v>
+        <v>86246584308</v>
       </c>
       <c r="E290" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8361,13 +8361,13 @@
         <v>799</v>
       </c>
       <c r="C291" s="2">
-        <v>36.74</v>
+        <v>37.28</v>
       </c>
       <c r="D291" s="2">
-        <v>21862983710</v>
+        <v>22184323155</v>
       </c>
       <c r="E291" s="3">
-        <v>53</v>
+        <v>531</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8378,13 +8378,13 @@
         <v>800</v>
       </c>
       <c r="C292" s="2">
-        <v>60</v>
+        <v>59.21</v>
       </c>
       <c r="D292" s="2">
-        <v>45856283160</v>
+        <v>45252508765</v>
       </c>
       <c r="E292" s="3">
-        <v>33</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8395,13 +8395,13 @@
         <v>801</v>
       </c>
       <c r="C293" s="2">
-        <v>112.04</v>
+        <v>112.54</v>
       </c>
       <c r="D293" s="2">
-        <v>16324694871</v>
+        <v>16397546954</v>
       </c>
       <c r="E293" s="3">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8412,13 +8412,13 @@
         <v>802</v>
       </c>
       <c r="C294" s="2">
-        <v>90.79000000000001</v>
+        <v>90.89</v>
       </c>
       <c r="D294" s="2">
-        <v>29531639261</v>
+        <v>29564166675</v>
       </c>
       <c r="E294" s="3">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8429,13 +8429,13 @@
         <v>803</v>
       </c>
       <c r="C295" s="2">
-        <v>97.63</v>
+        <v>96.12</v>
       </c>
       <c r="D295" s="2">
-        <v>22611108000</v>
+        <v>22261392000</v>
       </c>
       <c r="E295" s="3">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8446,13 +8446,13 @@
         <v>804</v>
       </c>
       <c r="C296" s="2">
-        <v>398.16</v>
+        <v>399.05</v>
       </c>
       <c r="D296" s="2">
-        <v>374384721690</v>
+        <v>375221577231</v>
       </c>
       <c r="E296" s="3">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8463,13 +8463,13 @@
         <v>805</v>
       </c>
       <c r="C297" s="2">
-        <v>151.69</v>
+        <v>152.52</v>
       </c>
       <c r="D297" s="2">
-        <v>17696108831</v>
+        <v>17792936376</v>
       </c>
       <c r="E297" s="3">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8480,13 +8480,13 @@
         <v>806</v>
       </c>
       <c r="C298" s="2">
-        <v>193.61</v>
+        <v>192.16</v>
       </c>
       <c r="D298" s="2">
-        <v>58732398337</v>
+        <v>58292534809</v>
       </c>
       <c r="E298" s="3">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8497,13 +8497,13 @@
         <v>807</v>
       </c>
       <c r="C299" s="2">
-        <v>60.78</v>
+        <v>60.4</v>
       </c>
       <c r="D299" s="2">
-        <v>13680880550</v>
+        <v>13595346910</v>
       </c>
       <c r="E299" s="3">
-        <v>32</v>
+        <v>327</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8514,13 +8514,13 @@
         <v>808</v>
       </c>
       <c r="C300" s="2">
-        <v>293.82</v>
+        <v>294.22</v>
       </c>
       <c r="D300" s="2">
-        <v>214516188523</v>
+        <v>214808226081</v>
       </c>
       <c r="E300" s="3">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8531,13 +8531,13 @@
         <v>809</v>
       </c>
       <c r="C301" s="2">
-        <v>93.33</v>
+        <v>92.41500000000001</v>
       </c>
       <c r="D301" s="2">
-        <v>50802688953</v>
+        <v>50304623375</v>
       </c>
       <c r="E301" s="3">
-        <v>21</v>
+        <v>214</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8548,13 +8548,13 @@
         <v>810</v>
       </c>
       <c r="C302" s="2">
-        <v>410.64</v>
+        <v>407.84</v>
       </c>
       <c r="D302" s="2">
-        <v>55683712868</v>
+        <v>55304026534</v>
       </c>
       <c r="E302" s="3">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8565,13 +8565,13 @@
         <v>811</v>
       </c>
       <c r="C303" s="2">
-        <v>359.44</v>
+        <v>359.61</v>
       </c>
       <c r="D303" s="2">
-        <v>65957240000</v>
+        <v>65988435000</v>
       </c>
       <c r="E303" s="3">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8582,13 +8582,13 @@
         <v>812</v>
       </c>
       <c r="C304" s="2">
-        <v>72.11</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="D304" s="2">
-        <v>98203255669</v>
+        <v>98938656557</v>
       </c>
       <c r="E304" s="3">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8599,13 +8599,13 @@
         <v>813</v>
       </c>
       <c r="C305" s="2">
-        <v>86.59999999999999</v>
+        <v>86.28</v>
       </c>
       <c r="D305" s="2">
-        <v>115213110065</v>
+        <v>114787380328</v>
       </c>
       <c r="E305" s="3">
-        <v>22</v>
+        <v>229</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>814</v>
       </c>
       <c r="C306" s="2">
-        <v>59.37</v>
+        <v>59.86</v>
       </c>
       <c r="D306" s="2">
-        <v>45466786002</v>
+        <v>45842038236</v>
       </c>
       <c r="E306" s="3">
-        <v>33</v>
+        <v>330</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8633,13 +8633,13 @@
         <v>815</v>
       </c>
       <c r="C307" s="2">
-        <v>49.89</v>
+        <v>49.835</v>
       </c>
       <c r="D307" s="2">
-        <v>18149967033</v>
+        <v>18129958050</v>
       </c>
       <c r="E307" s="3">
-        <v>39</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8650,13 +8650,13 @@
         <v>816</v>
       </c>
       <c r="C308" s="2">
-        <v>112.43</v>
+        <v>113.59</v>
       </c>
       <c r="D308" s="2">
-        <v>7159496304</v>
+        <v>7233364628</v>
       </c>
       <c r="E308" s="3">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8667,13 +8667,13 @@
         <v>817</v>
       </c>
       <c r="C309" s="2">
-        <v>85.43000000000001</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="D309" s="2">
-        <v>22952823152</v>
+        <v>22899123874</v>
       </c>
       <c r="E309" s="3">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8684,13 +8684,13 @@
         <v>818</v>
       </c>
       <c r="C310" s="2">
-        <v>256.87</v>
+        <v>257.73</v>
       </c>
       <c r="D310" s="2">
-        <v>9676128503</v>
+        <v>9708524153</v>
       </c>
       <c r="E310" s="3">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8701,13 +8701,13 @@
         <v>819</v>
       </c>
       <c r="C311" s="2">
-        <v>461.99</v>
+        <v>455.18</v>
       </c>
       <c r="D311" s="2">
-        <v>28628946046</v>
+        <v>28206938811</v>
       </c>
       <c r="E311" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8718,13 +8718,13 @@
         <v>820</v>
       </c>
       <c r="C312" s="2">
-        <v>188.12</v>
+        <v>187.96</v>
       </c>
       <c r="D312" s="2">
-        <v>93066977352</v>
+        <v>92987821939</v>
       </c>
       <c r="E312" s="3">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8735,13 +8735,13 @@
         <v>821</v>
       </c>
       <c r="C313" s="2">
-        <v>103.01</v>
+        <v>102.97</v>
       </c>
       <c r="D313" s="2">
-        <v>56827755073</v>
+        <v>56805688184</v>
       </c>
       <c r="E313" s="3">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8752,13 +8752,13 @@
         <v>822</v>
       </c>
       <c r="C314" s="2">
-        <v>56.55</v>
+        <v>57.33</v>
       </c>
       <c r="D314" s="2">
-        <v>56550000000</v>
+        <v>57330000000</v>
       </c>
       <c r="E314" s="3">
-        <v>35</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8769,13 +8769,13 @@
         <v>823</v>
       </c>
       <c r="C315" s="2">
-        <v>45.39</v>
+        <v>45.575</v>
       </c>
       <c r="D315" s="2">
-        <v>81022944539</v>
+        <v>81353176853</v>
       </c>
       <c r="E315" s="3">
-        <v>43</v>
+        <v>434</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8786,13 +8786,13 @@
         <v>824</v>
       </c>
       <c r="C316" s="2">
-        <v>37.53</v>
+        <v>37.835</v>
       </c>
       <c r="D316" s="2">
-        <v>12464057976</v>
+        <v>12565351279</v>
       </c>
       <c r="E316" s="3">
-        <v>52</v>
+        <v>523</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8803,13 +8803,13 @@
         <v>825</v>
       </c>
       <c r="C317" s="2">
-        <v>119.43</v>
+        <v>120.6</v>
       </c>
       <c r="D317" s="2">
-        <v>50672096237</v>
+        <v>51168507127</v>
       </c>
       <c r="E317" s="3">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8820,13 +8820,13 @@
         <v>826</v>
       </c>
       <c r="C318" s="2">
-        <v>105.95</v>
+        <v>106.7</v>
       </c>
       <c r="D318" s="2">
-        <v>268841339326</v>
+        <v>270744416292</v>
       </c>
       <c r="E318" s="3">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8837,13 +8837,13 @@
         <v>827</v>
       </c>
       <c r="C319" s="2">
-        <v>24.8</v>
+        <v>24.96</v>
       </c>
       <c r="D319" s="2">
-        <v>15316586987</v>
+        <v>15415403677</v>
       </c>
       <c r="E319" s="3">
-        <v>79</v>
+        <v>793</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8854,13 +8854,13 @@
         <v>828</v>
       </c>
       <c r="C320" s="2">
-        <v>91.94</v>
+        <v>92.815</v>
       </c>
       <c r="D320" s="2">
-        <v>153550252751</v>
+        <v>155011602230</v>
       </c>
       <c r="E320" s="3">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8871,13 +8871,13 @@
         <v>829</v>
       </c>
       <c r="C321" s="2">
-        <v>502.83</v>
+        <v>503.51</v>
       </c>
       <c r="D321" s="2">
-        <v>40276683000</v>
+        <v>40331151000</v>
       </c>
       <c r="E321" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8888,13 +8888,13 @@
         <v>830</v>
       </c>
       <c r="C322" s="2">
-        <v>359.63</v>
+        <v>359.925</v>
       </c>
       <c r="D322" s="2">
-        <v>2674024396597</v>
+        <v>2676217865432</v>
       </c>
       <c r="E322" s="3">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8905,13 +8905,13 @@
         <v>831</v>
       </c>
       <c r="C323" s="2">
-        <v>290.71</v>
+        <v>290.39</v>
       </c>
       <c r="D323" s="2">
-        <v>48752067000</v>
+        <v>48698403000</v>
       </c>
       <c r="E323" s="3">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8922,13 +8922,13 @@
         <v>832</v>
       </c>
       <c r="C324" s="2">
-        <v>134.76</v>
+        <v>138.685</v>
       </c>
       <c r="D324" s="2">
-        <v>22352618560</v>
+        <v>23003657651</v>
       </c>
       <c r="E324" s="3">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8939,13 +8939,13 @@
         <v>833</v>
       </c>
       <c r="C325" s="2">
-        <v>1335.01</v>
+        <v>1336.43</v>
       </c>
       <c r="D325" s="2">
-        <v>29397227252</v>
+        <v>29428495979</v>
       </c>
       <c r="E325" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8956,13 +8956,13 @@
         <v>834</v>
       </c>
       <c r="C326" s="2">
-        <v>64.94</v>
+        <v>65.145</v>
       </c>
       <c r="D326" s="2">
-        <v>71128886424</v>
+        <v>71353423253</v>
       </c>
       <c r="E326" s="3">
-        <v>30</v>
+        <v>303</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8979,7 +8979,7 @@
         <v>27699922819</v>
       </c>
       <c r="E327" s="3">
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8996,7 +8996,7 @@
         <v>8586211830</v>
       </c>
       <c r="E328" s="3">
-        <v>124</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9013,7 +9013,7 @@
         <v>4095292500</v>
       </c>
       <c r="E329" s="3">
-        <v>234</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9024,13 +9024,13 @@
         <v>838</v>
       </c>
       <c r="C330" s="2">
-        <v>21.15</v>
+        <v>21.05</v>
       </c>
       <c r="D330" s="2">
-        <v>8971092690</v>
+        <v>8928676176</v>
       </c>
       <c r="E330" s="3">
-        <v>93</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9041,13 +9041,13 @@
         <v>839</v>
       </c>
       <c r="C331" s="2">
-        <v>51.4</v>
+        <v>51.15</v>
       </c>
       <c r="D331" s="2">
-        <v>25225415165</v>
+        <v>25102723457</v>
       </c>
       <c r="E331" s="3">
-        <v>38</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9058,13 +9058,13 @@
         <v>840</v>
       </c>
       <c r="C332" s="2">
-        <v>72.05</v>
+        <v>72.87</v>
       </c>
       <c r="D332" s="2">
-        <v>145787551137</v>
+        <v>147446757132</v>
       </c>
       <c r="E332" s="3">
-        <v>27</v>
+        <v>271</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9075,13 +9075,13 @@
         <v>841</v>
       </c>
       <c r="C333" s="2">
-        <v>44.98</v>
+        <v>44.85</v>
       </c>
       <c r="D333" s="2">
-        <v>35746154801</v>
+        <v>35642842215</v>
       </c>
       <c r="E333" s="3">
-        <v>44</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9092,13 +9092,13 @@
         <v>842</v>
       </c>
       <c r="C334" s="2">
-        <v>474.79</v>
+        <v>477.88</v>
       </c>
       <c r="D334" s="2">
-        <v>209759851848</v>
+        <v>211124998423</v>
       </c>
       <c r="E334" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9109,13 +9109,13 @@
         <v>843</v>
       </c>
       <c r="C335" s="2">
-        <v>27.29</v>
+        <v>27.68</v>
       </c>
       <c r="D335" s="2">
-        <v>11272495247</v>
+        <v>11433589902</v>
       </c>
       <c r="E335" s="3">
-        <v>72</v>
+        <v>715</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9126,13 +9126,13 @@
         <v>844</v>
       </c>
       <c r="C336" s="2">
-        <v>109.72</v>
+        <v>109.195</v>
       </c>
       <c r="D336" s="2">
-        <v>171163200000</v>
+        <v>170344200000</v>
       </c>
       <c r="E336" s="3">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9149,7 +9149,7 @@
         <v>12352934758</v>
       </c>
       <c r="E337" s="3">
-        <v>91</v>
+        <v>915</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9166,7 +9166,7 @@
         <v>10068164861</v>
       </c>
       <c r="E338" s="3">
-        <v>70</v>
+        <v>707</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9177,13 +9177,13 @@
         <v>847</v>
       </c>
       <c r="C339" s="2">
-        <v>442.68</v>
+        <v>442.13</v>
       </c>
       <c r="D339" s="2">
-        <v>67225139113</v>
+        <v>67141616418</v>
       </c>
       <c r="E339" s="3">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9194,13 +9194,13 @@
         <v>848</v>
       </c>
       <c r="C340" s="2">
-        <v>18.65</v>
+        <v>18.665</v>
       </c>
       <c r="D340" s="2">
-        <v>7342970784</v>
+        <v>7348876658</v>
       </c>
       <c r="E340" s="3">
-        <v>106</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9211,13 +9211,13 @@
         <v>849</v>
       </c>
       <c r="C341" s="2">
-        <v>597.13</v>
+        <v>609.17</v>
       </c>
       <c r="D341" s="2">
-        <v>121814520000</v>
+        <v>124270680000</v>
       </c>
       <c r="E341" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9228,13 +9228,13 @@
         <v>850</v>
       </c>
       <c r="C342" s="2">
-        <v>36.96</v>
+        <v>37.56</v>
       </c>
       <c r="D342" s="2">
-        <v>8509388543</v>
+        <v>8647527967</v>
       </c>
       <c r="E342" s="3">
-        <v>53</v>
+        <v>527</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9245,13 +9245,13 @@
         <v>851</v>
       </c>
       <c r="C343" s="2">
-        <v>235.14</v>
+        <v>236.9</v>
       </c>
       <c r="D343" s="2">
-        <v>53527176014</v>
+        <v>53927821714</v>
       </c>
       <c r="E343" s="3">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9262,13 +9262,13 @@
         <v>852</v>
       </c>
       <c r="C344" s="2">
-        <v>78.93000000000001</v>
+        <v>79.38</v>
       </c>
       <c r="D344" s="2">
-        <v>16767168174</v>
+        <v>16862762064</v>
       </c>
       <c r="E344" s="3">
-        <v>25</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9279,13 +9279,13 @@
         <v>853</v>
       </c>
       <c r="C345" s="2">
-        <v>71.68000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="D345" s="2">
-        <v>14933979505</v>
+        <v>16711139733</v>
       </c>
       <c r="E345" s="3">
-        <v>27</v>
+        <v>246</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9296,13 +9296,13 @@
         <v>854</v>
       </c>
       <c r="C346" s="2">
-        <v>171.28</v>
+        <v>167.68</v>
       </c>
       <c r="D346" s="2">
-        <v>43029459682</v>
+        <v>42125057213</v>
       </c>
       <c r="E346" s="3">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9313,13 +9313,13 @@
         <v>855</v>
       </c>
       <c r="C347" s="2">
-        <v>475.01</v>
+        <v>474.17</v>
       </c>
       <c r="D347" s="2">
-        <v>1173274700000</v>
+        <v>1171199900000</v>
       </c>
       <c r="E347" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9330,13 +9330,13 @@
         <v>856</v>
       </c>
       <c r="C348" s="2">
-        <v>6466</v>
+        <v>6426.51</v>
       </c>
       <c r="D348" s="2">
-        <v>20994752836</v>
+        <v>20866530938</v>
       </c>
       <c r="E348" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9347,13 +9347,13 @@
         <v>857</v>
       </c>
       <c r="C349" s="2">
-        <v>9.74</v>
+        <v>9.895</v>
       </c>
       <c r="D349" s="2">
-        <v>4033334000</v>
+        <v>4097519500</v>
       </c>
       <c r="E349" s="3">
-        <v>203</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9364,13 +9364,13 @@
         <v>858</v>
       </c>
       <c r="C350" s="2">
-        <v>20.82</v>
+        <v>20.57</v>
       </c>
       <c r="D350" s="2">
-        <v>11847287297</v>
+        <v>11713304238</v>
       </c>
       <c r="E350" s="3">
-        <v>95</v>
+        <v>962</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9381,13 +9381,13 @@
         <v>859</v>
       </c>
       <c r="C351" s="2">
-        <v>20.59</v>
+        <v>20.33</v>
       </c>
       <c r="D351" s="2">
-        <v>11854249589</v>
+        <v>11700333595</v>
       </c>
       <c r="E351" s="3">
-        <v>96</v>
+        <v>974</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9398,13 +9398,13 @@
         <v>860</v>
       </c>
       <c r="C352" s="2">
-        <v>60.99</v>
+        <v>61.6</v>
       </c>
       <c r="D352" s="2">
-        <v>41059839726</v>
+        <v>41470505446</v>
       </c>
       <c r="E352" s="3">
-        <v>32</v>
+        <v>321</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9415,13 +9415,13 @@
         <v>861</v>
       </c>
       <c r="C353" s="2">
-        <v>394.19</v>
+        <v>392.52</v>
       </c>
       <c r="D353" s="2">
-        <v>43223535822</v>
+        <v>43040417771</v>
       </c>
       <c r="E353" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9432,13 +9432,13 @@
         <v>862</v>
       </c>
       <c r="C354" s="2">
-        <v>64.31999999999999</v>
+        <v>64.98</v>
       </c>
       <c r="D354" s="2">
-        <v>28785021092</v>
+        <v>29080389779</v>
       </c>
       <c r="E354" s="3">
-        <v>30</v>
+        <v>304</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9449,13 +9449,13 @@
         <v>863</v>
       </c>
       <c r="C355" s="2">
-        <v>97.92</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D355" s="2">
-        <v>19536484810</v>
+        <v>17377735161</v>
       </c>
       <c r="E355" s="3">
-        <v>20</v>
+        <v>227</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9466,13 +9466,13 @@
         <v>864</v>
       </c>
       <c r="C356" s="2">
-        <v>120.77</v>
+        <v>120.705</v>
       </c>
       <c r="D356" s="2">
-        <v>327801059430</v>
+        <v>327624632595</v>
       </c>
       <c r="E356" s="3">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9483,13 +9483,13 @@
         <v>865</v>
       </c>
       <c r="C357" s="2">
-        <v>962.4299999999999</v>
+        <v>967.625</v>
       </c>
       <c r="D357" s="2">
-        <v>58591718224</v>
+        <v>58907984318</v>
       </c>
       <c r="E357" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9500,13 +9500,13 @@
         <v>866</v>
       </c>
       <c r="C358" s="2">
-        <v>88.53</v>
+        <v>87.91</v>
       </c>
       <c r="D358" s="2">
-        <v>36588681976</v>
+        <v>36332441348</v>
       </c>
       <c r="E358" s="3">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9517,13 +9517,13 @@
         <v>867</v>
       </c>
       <c r="C359" s="2">
-        <v>60.08</v>
+        <v>60.29</v>
       </c>
       <c r="D359" s="2">
-        <v>53576050835</v>
+        <v>53763317324</v>
       </c>
       <c r="E359" s="3">
-        <v>32</v>
+        <v>328</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9534,13 +9534,13 @@
         <v>868</v>
       </c>
       <c r="C360" s="2">
-        <v>363.75</v>
+        <v>367.39</v>
       </c>
       <c r="D360" s="2">
-        <v>21931431068</v>
+        <v>22150896110</v>
       </c>
       <c r="E360" s="3">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9551,13 +9551,13 @@
         <v>869</v>
       </c>
       <c r="C361" s="2">
-        <v>122.19</v>
+        <v>123.15</v>
       </c>
       <c r="D361" s="2">
-        <v>44055088858</v>
+        <v>44401212807</v>
       </c>
       <c r="E361" s="3">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9574,7 +9574,7 @@
         <v>8371850392</v>
       </c>
       <c r="E362" s="3">
-        <v>102</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9585,13 +9585,13 @@
         <v>871</v>
       </c>
       <c r="C363" s="2">
-        <v>89.40000000000001</v>
+        <v>88.22499999999999</v>
       </c>
       <c r="D363" s="2">
-        <v>46718565818</v>
+        <v>46104535451</v>
       </c>
       <c r="E363" s="3">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9602,13 +9602,13 @@
         <v>872</v>
       </c>
       <c r="C364" s="2">
-        <v>20.9</v>
+        <v>21.31</v>
       </c>
       <c r="D364" s="2">
-        <v>11432209837</v>
+        <v>11656478069</v>
       </c>
       <c r="E364" s="3">
-        <v>94</v>
+        <v>929</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9619,13 +9619,13 @@
         <v>873</v>
       </c>
       <c r="C365" s="2">
-        <v>62.65</v>
+        <v>63.235</v>
       </c>
       <c r="D365" s="2">
-        <v>31260165896</v>
+        <v>31552060501</v>
       </c>
       <c r="E365" s="3">
-        <v>31</v>
+        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9636,13 +9636,13 @@
         <v>874</v>
       </c>
       <c r="C366" s="2">
-        <v>184.44</v>
+        <v>185.66</v>
       </c>
       <c r="D366" s="2">
-        <v>253896527893</v>
+        <v>255575956238</v>
       </c>
       <c r="E366" s="3">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9653,13 +9653,13 @@
         <v>875</v>
       </c>
       <c r="C367" s="2">
-        <v>36.24</v>
+        <v>36.53</v>
       </c>
       <c r="D367" s="2">
-        <v>204585926405</v>
+        <v>206223065441</v>
       </c>
       <c r="E367" s="3">
-        <v>54</v>
+        <v>542</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9670,13 +9670,13 @@
         <v>876</v>
       </c>
       <c r="C368" s="2">
-        <v>81.47</v>
+        <v>82.48</v>
       </c>
       <c r="D368" s="2">
-        <v>19778858475</v>
+        <v>20024060968</v>
       </c>
       <c r="E368" s="3">
-        <v>24</v>
+        <v>240</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9687,13 +9687,13 @@
         <v>877</v>
       </c>
       <c r="C369" s="2">
-        <v>149.27</v>
+        <v>149.66</v>
       </c>
       <c r="D369" s="2">
-        <v>351824810695</v>
+        <v>352744028731</v>
       </c>
       <c r="E369" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9704,13 +9704,13 @@
         <v>878</v>
       </c>
       <c r="C370" s="2">
-        <v>119.81</v>
+        <v>118.495</v>
       </c>
       <c r="D370" s="2">
-        <v>70132754135</v>
+        <v>69362997256</v>
       </c>
       <c r="E370" s="3">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9721,13 +9721,13 @@
         <v>879</v>
       </c>
       <c r="C371" s="2">
-        <v>408.56</v>
+        <v>402.66</v>
       </c>
       <c r="D371" s="2">
-        <v>52463189600</v>
+        <v>51705570600</v>
       </c>
       <c r="E371" s="3">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9738,13 +9738,13 @@
         <v>880</v>
       </c>
       <c r="C372" s="2">
-        <v>82.02</v>
+        <v>81.45</v>
       </c>
       <c r="D372" s="2">
-        <v>18306864000</v>
+        <v>18179640000</v>
       </c>
       <c r="E372" s="3">
-        <v>24</v>
+        <v>243</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9755,13 +9755,13 @@
         <v>881</v>
       </c>
       <c r="C373" s="2">
-        <v>135.41</v>
+        <v>135.75</v>
       </c>
       <c r="D373" s="2">
-        <v>12177717171</v>
+        <v>12208294114</v>
       </c>
       <c r="E373" s="3">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9778,7 +9778,7 @@
         <v>14455821070</v>
       </c>
       <c r="E374" s="3">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9789,13 +9789,13 @@
         <v>883</v>
       </c>
       <c r="C375" s="2">
-        <v>124</v>
+        <v>124.4</v>
       </c>
       <c r="D375" s="2">
-        <v>114509784000</v>
+        <v>114879170400</v>
       </c>
       <c r="E375" s="3">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9806,13 +9806,13 @@
         <v>884</v>
       </c>
       <c r="C376" s="2">
-        <v>98.34999999999999</v>
+        <v>98.925</v>
       </c>
       <c r="D376" s="2">
-        <v>152658543675</v>
+        <v>153551056767</v>
       </c>
       <c r="E376" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9823,13 +9823,13 @@
         <v>885</v>
       </c>
       <c r="C377" s="2">
-        <v>130.35</v>
+        <v>131.39</v>
       </c>
       <c r="D377" s="2">
-        <v>52023730277</v>
+        <v>52438802616</v>
       </c>
       <c r="E377" s="3">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9840,13 +9840,13 @@
         <v>886</v>
       </c>
       <c r="C378" s="2">
-        <v>65.63</v>
+        <v>66.03</v>
       </c>
       <c r="D378" s="2">
-        <v>10825688517</v>
+        <v>10891668639</v>
       </c>
       <c r="E378" s="3">
-        <v>30</v>
+        <v>299</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9857,13 +9857,13 @@
         <v>887</v>
       </c>
       <c r="C379" s="2">
-        <v>82.54000000000001</v>
+        <v>82.67</v>
       </c>
       <c r="D379" s="2">
-        <v>9348150075</v>
+        <v>9362873355</v>
       </c>
       <c r="E379" s="3">
-        <v>23</v>
+        <v>239</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9874,13 +9874,13 @@
         <v>888</v>
       </c>
       <c r="C380" s="2">
-        <v>151.37</v>
+        <v>149.82</v>
       </c>
       <c r="D380" s="2">
-        <v>35634926732</v>
+        <v>35270031862</v>
       </c>
       <c r="E380" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9891,13 +9891,13 @@
         <v>889</v>
       </c>
       <c r="C381" s="2">
-        <v>26.32</v>
+        <v>26.7</v>
       </c>
       <c r="D381" s="2">
-        <v>19399620311</v>
+        <v>19679706015</v>
       </c>
       <c r="E381" s="3">
-        <v>75</v>
+        <v>741</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9908,13 +9908,13 @@
         <v>890</v>
       </c>
       <c r="C382" s="2">
-        <v>33.37</v>
+        <v>33.61</v>
       </c>
       <c r="D382" s="2">
-        <v>4515823514</v>
+        <v>4548301718</v>
       </c>
       <c r="E382" s="3">
-        <v>59</v>
+        <v>589</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9925,13 +9925,13 @@
         <v>891</v>
       </c>
       <c r="C383" s="2">
-        <v>93.69</v>
+        <v>94.285</v>
       </c>
       <c r="D383" s="2">
-        <v>34196850000</v>
+        <v>34414025000</v>
       </c>
       <c r="E383" s="3">
-        <v>21</v>
+        <v>210</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9942,13 +9942,13 @@
         <v>892</v>
       </c>
       <c r="C384" s="2">
-        <v>294.37</v>
+        <v>295.61</v>
       </c>
       <c r="D384" s="2">
-        <v>51753795219</v>
+        <v>51971802170</v>
       </c>
       <c r="E384" s="3">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9959,13 +9959,13 @@
         <v>893</v>
       </c>
       <c r="C385" s="2">
-        <v>101.16</v>
+        <v>102.72</v>
       </c>
       <c r="D385" s="2">
-        <v>46418511887</v>
+        <v>47134337100</v>
       </c>
       <c r="E385" s="3">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9976,13 +9976,13 @@
         <v>894</v>
       </c>
       <c r="C386" s="2">
-        <v>88.44</v>
+        <v>88.03</v>
       </c>
       <c r="D386" s="2">
-        <v>5546683697</v>
+        <v>5520969763</v>
       </c>
       <c r="E386" s="3">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9993,13 +9993,13 @@
         <v>895</v>
       </c>
       <c r="C387" s="2">
-        <v>199.61</v>
+        <v>198.32</v>
       </c>
       <c r="D387" s="2">
-        <v>28978494330</v>
+        <v>28791217852</v>
       </c>
       <c r="E387" s="3">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10010,13 +10010,13 @@
         <v>896</v>
       </c>
       <c r="C388" s="2">
-        <v>211.13</v>
+        <v>212.08</v>
       </c>
       <c r="D388" s="2">
-        <v>49348583927</v>
+        <v>49570632687</v>
       </c>
       <c r="E388" s="3">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10027,13 +10027,13 @@
         <v>897</v>
       </c>
       <c r="C389" s="2">
-        <v>74.38</v>
+        <v>74.86</v>
       </c>
       <c r="D389" s="2">
-        <v>82986804940</v>
+        <v>83522347644</v>
       </c>
       <c r="E389" s="3">
-        <v>26</v>
+        <v>264</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10044,13 +10044,13 @@
         <v>898</v>
       </c>
       <c r="C390" s="2">
-        <v>122.825</v>
+        <v>126.26</v>
       </c>
       <c r="D390" s="2">
-        <v>136827050000</v>
+        <v>140653640000</v>
       </c>
       <c r="E390" s="3">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10061,13 +10061,13 @@
         <v>899</v>
       </c>
       <c r="C391" s="2">
-        <v>106.77</v>
+        <v>106.325</v>
       </c>
       <c r="D391" s="2">
-        <v>10476084592</v>
+        <v>10432421974</v>
       </c>
       <c r="E391" s="3">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10078,13 +10078,13 @@
         <v>900</v>
       </c>
       <c r="C392" s="2">
-        <v>99.37</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D392" s="2">
-        <v>25412552401</v>
+        <v>25343503502</v>
       </c>
       <c r="E392" s="3">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10101,7 +10101,7 @@
         <v>13796600687</v>
       </c>
       <c r="E393" s="3">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10112,13 +10112,13 @@
         <v>902</v>
       </c>
       <c r="C394" s="2">
-        <v>63.75</v>
+        <v>64.34</v>
       </c>
       <c r="D394" s="2">
-        <v>10899909146</v>
+        <v>11000786737</v>
       </c>
       <c r="E394" s="3">
-        <v>31</v>
+        <v>307</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10129,13 +10129,13 @@
         <v>903</v>
       </c>
       <c r="C395" s="2">
-        <v>726.4400000000001</v>
+        <v>724.9</v>
       </c>
       <c r="D395" s="2">
-        <v>78377142936</v>
+        <v>78210989089</v>
       </c>
       <c r="E395" s="3">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10146,13 +10146,13 @@
         <v>904</v>
       </c>
       <c r="C396" s="2">
-        <v>19.64</v>
+        <v>19.81</v>
       </c>
       <c r="D396" s="2">
-        <v>18428435778</v>
+        <v>18587948715</v>
       </c>
       <c r="E396" s="3">
-        <v>100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10163,13 +10163,13 @@
         <v>905</v>
       </c>
       <c r="C397" s="2">
-        <v>84.42</v>
+        <v>84.59</v>
       </c>
       <c r="D397" s="2">
-        <v>9097338109</v>
+        <v>9115657790</v>
       </c>
       <c r="E397" s="3">
-        <v>23</v>
+        <v>234</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10180,13 +10180,13 @@
         <v>906</v>
       </c>
       <c r="C398" s="2">
-        <v>109.8</v>
+        <v>110.05</v>
       </c>
       <c r="D398" s="2">
-        <v>23267794201</v>
+        <v>23320771875</v>
       </c>
       <c r="E398" s="3">
-        <v>18</v>
+        <v>179</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10197,13 +10197,13 @@
         <v>907</v>
       </c>
       <c r="C399" s="2">
-        <v>128.34</v>
+        <v>127.78</v>
       </c>
       <c r="D399" s="2">
-        <v>8698885200</v>
+        <v>8660928400</v>
       </c>
       <c r="E399" s="3">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10214,13 +10214,13 @@
         <v>908</v>
       </c>
       <c r="C400" s="2">
-        <v>221.12</v>
+        <v>219.2</v>
       </c>
       <c r="D400" s="2">
-        <v>32489307539</v>
+        <v>32207200672</v>
       </c>
       <c r="E400" s="3">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10231,13 +10231,13 @@
         <v>909</v>
       </c>
       <c r="C401" s="2">
-        <v>346.89</v>
+        <v>342.8</v>
       </c>
       <c r="D401" s="2">
-        <v>39849101489</v>
+        <v>39379261410</v>
       </c>
       <c r="E401" s="3">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10248,13 +10248,13 @@
         <v>910</v>
       </c>
       <c r="C402" s="2">
-        <v>44.48</v>
+        <v>44.18</v>
       </c>
       <c r="D402" s="2">
-        <v>21919165982</v>
+        <v>21771329881</v>
       </c>
       <c r="E402" s="3">
-        <v>44</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10265,13 +10265,13 @@
         <v>911</v>
       </c>
       <c r="C403" s="2">
-        <v>480.35</v>
+        <v>481.575</v>
       </c>
       <c r="D403" s="2">
-        <v>51201579602</v>
+        <v>51332155089</v>
       </c>
       <c r="E403" s="3">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10282,13 +10282,13 @@
         <v>912</v>
       </c>
       <c r="C404" s="2">
-        <v>111.92</v>
+        <v>112.07</v>
       </c>
       <c r="D404" s="2">
-        <v>38282433539</v>
+        <v>38333741304</v>
       </c>
       <c r="E404" s="3">
-        <v>17</v>
+        <v>176</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10299,13 +10299,13 @@
         <v>913</v>
       </c>
       <c r="C405" s="2">
-        <v>149.06</v>
+        <v>149.37</v>
       </c>
       <c r="D405" s="2">
-        <v>47145043066</v>
+        <v>47243090587</v>
       </c>
       <c r="E405" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10316,13 +10316,13 @@
         <v>914</v>
       </c>
       <c r="C406" s="2">
-        <v>95.76000000000001</v>
+        <v>95.89</v>
       </c>
       <c r="D406" s="2">
-        <v>139918959452</v>
+        <v>140108907914</v>
       </c>
       <c r="E406" s="3">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10333,13 +10333,13 @@
         <v>915</v>
       </c>
       <c r="C407" s="2">
-        <v>228.19</v>
+        <v>235.4</v>
       </c>
       <c r="D407" s="2">
-        <v>24721966089</v>
+        <v>25503093112</v>
       </c>
       <c r="E407" s="3">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10350,13 +10350,13 @@
         <v>916</v>
       </c>
       <c r="C408" s="2">
-        <v>100.77</v>
+        <v>101.07</v>
       </c>
       <c r="D408" s="2">
-        <v>115522728000</v>
+        <v>115866648000</v>
       </c>
       <c r="E408" s="3">
-        <v>19</v>
+        <v>195</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10367,13 +10367,13 @@
         <v>917</v>
       </c>
       <c r="C409" s="2">
-        <v>66.01000000000001</v>
+        <v>67.64</v>
       </c>
       <c r="D409" s="2">
-        <v>116781077414</v>
+        <v>119664779220</v>
       </c>
       <c r="E409" s="3">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10384,13 +10384,13 @@
         <v>918</v>
       </c>
       <c r="C410" s="2">
-        <v>44.79</v>
+        <v>45.27</v>
       </c>
       <c r="D410" s="2">
-        <v>6467067662</v>
+        <v>6536373143</v>
       </c>
       <c r="E410" s="3">
-        <v>44</v>
+        <v>437</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10401,13 +10401,13 @@
         <v>919</v>
       </c>
       <c r="C411" s="2">
-        <v>267.69</v>
+        <v>268.03</v>
       </c>
       <c r="D411" s="2">
-        <v>69034658690</v>
+        <v>69122341397</v>
       </c>
       <c r="E411" s="3">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10424,7 +10424,7 @@
         <v>6277666087</v>
       </c>
       <c r="E412" s="3">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10435,13 +10435,13 @@
         <v>921</v>
       </c>
       <c r="C413" s="2">
-        <v>147.72</v>
+        <v>149.145</v>
       </c>
       <c r="D413" s="2">
-        <v>15074325672</v>
+        <v>15219742096</v>
       </c>
       <c r="E413" s="3">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10452,13 +10452,13 @@
         <v>417</v>
       </c>
       <c r="C414" s="2">
-        <v>56.98</v>
+        <v>56.76</v>
       </c>
       <c r="D414" s="2">
-        <v>80922340274</v>
+        <v>80609898806</v>
       </c>
       <c r="E414" s="3">
-        <v>34</v>
+        <v>348</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10469,13 +10469,13 @@
         <v>922</v>
       </c>
       <c r="C415" s="2">
-        <v>34.02</v>
+        <v>34.82</v>
       </c>
       <c r="D415" s="2">
-        <v>2190055429</v>
+        <v>2241555850</v>
       </c>
       <c r="E415" s="3">
-        <v>58</v>
+        <v>568</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10486,13 +10486,13 @@
         <v>923</v>
       </c>
       <c r="C416" s="2">
-        <v>295.09</v>
+        <v>294.745</v>
       </c>
       <c r="D416" s="2">
-        <v>15619651059</v>
+        <v>15601389581</v>
       </c>
       <c r="E416" s="3">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10503,13 +10503,13 @@
         <v>924</v>
       </c>
       <c r="C417" s="2">
-        <v>462.97</v>
+        <v>459.82</v>
       </c>
       <c r="D417" s="2">
-        <v>70464034000</v>
+        <v>69984604000</v>
       </c>
       <c r="E417" s="3">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10520,13 +10520,13 @@
         <v>925</v>
       </c>
       <c r="C418" s="2">
-        <v>69.09</v>
+        <v>70.23</v>
       </c>
       <c r="D418" s="2">
-        <v>75335911489</v>
+        <v>76578970384</v>
       </c>
       <c r="E418" s="3">
-        <v>28</v>
+        <v>281</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10537,13 +10537,13 @@
         <v>926</v>
       </c>
       <c r="C419" s="2">
-        <v>121.52</v>
+        <v>122.58</v>
       </c>
       <c r="D419" s="2">
-        <v>39735638874</v>
+        <v>40082246653</v>
       </c>
       <c r="E419" s="3">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10554,13 +10554,13 @@
         <v>927</v>
       </c>
       <c r="C420" s="2">
-        <v>421.85</v>
+        <v>423.79</v>
       </c>
       <c r="D420" s="2">
-        <v>140476050000</v>
+        <v>141122070000</v>
       </c>
       <c r="E420" s="3">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10571,13 +10571,13 @@
         <v>928</v>
       </c>
       <c r="C421" s="2">
-        <v>145.06</v>
+        <v>146.41</v>
       </c>
       <c r="D421" s="2">
-        <v>45643538940</v>
+        <v>46068320255</v>
       </c>
       <c r="E421" s="3">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10588,13 +10588,13 @@
         <v>929</v>
       </c>
       <c r="C422" s="2">
-        <v>226.95</v>
+        <v>225.68</v>
       </c>
       <c r="D422" s="2">
-        <v>22388842407</v>
+        <v>22263555649</v>
       </c>
       <c r="E422" s="3">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10605,13 +10605,13 @@
         <v>930</v>
       </c>
       <c r="C423" s="2">
-        <v>68.29000000000001</v>
+        <v>69.87</v>
       </c>
       <c r="D423" s="2">
-        <v>22826536388</v>
+        <v>23354665360</v>
       </c>
       <c r="E423" s="3">
-        <v>28</v>
+        <v>283</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10622,13 +10622,13 @@
         <v>931</v>
       </c>
       <c r="C424" s="2">
-        <v>61.37</v>
+        <v>61.24</v>
       </c>
       <c r="D424" s="2">
-        <v>12811601200</v>
+        <v>12784462400</v>
       </c>
       <c r="E424" s="3">
-        <v>32</v>
+        <v>323</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10639,13 +10639,13 @@
         <v>932</v>
       </c>
       <c r="C425" s="2">
-        <v>254.33</v>
+        <v>264.11</v>
       </c>
       <c r="D425" s="2">
-        <v>46618871100</v>
+        <v>48411552103</v>
       </c>
       <c r="E425" s="3">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10656,13 +10656,13 @@
         <v>933</v>
       </c>
       <c r="C426" s="2">
-        <v>98.84999999999999</v>
+        <v>98.705</v>
       </c>
       <c r="D426" s="2">
-        <v>15138156982</v>
+        <v>15115951289</v>
       </c>
       <c r="E426" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10673,13 +10673,13 @@
         <v>934</v>
       </c>
       <c r="C427" s="2">
-        <v>114.98</v>
+        <v>114.725</v>
       </c>
       <c r="D427" s="2">
-        <v>18299609246</v>
+        <v>18259024793</v>
       </c>
       <c r="E427" s="3">
-        <v>17</v>
+        <v>172</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10690,13 +10690,13 @@
         <v>935</v>
       </c>
       <c r="C428" s="2">
-        <v>36.17</v>
+        <v>36.175</v>
       </c>
       <c r="D428" s="2">
-        <v>15501397734</v>
+        <v>15503540587</v>
       </c>
       <c r="E428" s="3">
-        <v>54</v>
+        <v>547</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10707,13 +10707,13 @@
         <v>936</v>
       </c>
       <c r="C429" s="2">
-        <v>296.64</v>
+        <v>292.365</v>
       </c>
       <c r="D429" s="2">
-        <v>112376501703</v>
+        <v>110756998114</v>
       </c>
       <c r="E429" s="3">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10724,13 +10724,13 @@
         <v>937</v>
       </c>
       <c r="C430" s="2">
-        <v>72.48</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D430" s="2">
-        <v>36724334409</v>
+        <v>37388088245</v>
       </c>
       <c r="E430" s="3">
-        <v>27</v>
+        <v>268</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10741,13 +10741,13 @@
         <v>938</v>
       </c>
       <c r="C431" s="2">
-        <v>13.45</v>
+        <v>14.505</v>
       </c>
       <c r="D431" s="2">
-        <v>95898500000</v>
+        <v>103420650000</v>
       </c>
       <c r="E431" s="3">
-        <v>147</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10758,13 +10758,13 @@
         <v>939</v>
       </c>
       <c r="C432" s="2">
-        <v>67.90000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="D432" s="2">
-        <v>13774066552</v>
+        <v>13900066143</v>
       </c>
       <c r="E432" s="3">
-        <v>29</v>
+        <v>288</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10775,13 +10775,13 @@
         <v>940</v>
       </c>
       <c r="C433" s="2">
-        <v>896.8</v>
+        <v>893.47</v>
       </c>
       <c r="D433" s="2">
-        <v>49259692266</v>
+        <v>49076781053</v>
       </c>
       <c r="E433" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10792,13 +10792,13 @@
         <v>941</v>
       </c>
       <c r="C434" s="2">
-        <v>408.79</v>
+        <v>407.785</v>
       </c>
       <c r="D434" s="2">
-        <v>19231762239</v>
+        <v>19184481433</v>
       </c>
       <c r="E434" s="3">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10809,13 +10809,13 @@
         <v>942</v>
       </c>
       <c r="C435" s="2">
-        <v>142.57</v>
+        <v>142.11</v>
       </c>
       <c r="D435" s="2">
-        <v>44923807000</v>
+        <v>44778861000</v>
       </c>
       <c r="E435" s="3">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10826,13 +10826,13 @@
         <v>943</v>
       </c>
       <c r="C436" s="2">
-        <v>34.51</v>
+        <v>35.235</v>
       </c>
       <c r="D436" s="2">
-        <v>45964486280</v>
+        <v>46930126748</v>
       </c>
       <c r="E436" s="3">
-        <v>57</v>
+        <v>561</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10843,13 +10843,13 @@
         <v>944</v>
       </c>
       <c r="C437" s="2">
-        <v>251.61</v>
+        <v>249.51</v>
       </c>
       <c r="D437" s="2">
-        <v>11800509000</v>
+        <v>11702019000</v>
       </c>
       <c r="E437" s="3">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10860,13 +10860,13 @@
         <v>945</v>
       </c>
       <c r="C438" s="2">
-        <v>130.81</v>
+        <v>131.72</v>
       </c>
       <c r="D438" s="2">
-        <v>60376612846</v>
+        <v>60796632093</v>
       </c>
       <c r="E438" s="3">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10883,7 +10883,7 @@
         <v>15960711882</v>
       </c>
       <c r="E439" s="3">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10894,13 +10894,13 @@
         <v>947</v>
       </c>
       <c r="C440" s="2">
-        <v>85.16</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D440" s="2">
-        <v>97869147850</v>
+        <v>98144965082</v>
       </c>
       <c r="E440" s="3">
-        <v>23</v>
+        <v>231</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10911,13 +10911,13 @@
         <v>948</v>
       </c>
       <c r="C441" s="2">
-        <v>523.6799999999999</v>
+        <v>534.71</v>
       </c>
       <c r="D441" s="2">
-        <v>201994523052</v>
+        <v>206249028837</v>
       </c>
       <c r="E441" s="3">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10928,13 +10928,13 @@
         <v>949</v>
       </c>
       <c r="C442" s="2">
-        <v>138.49</v>
+        <v>139.2</v>
       </c>
       <c r="D442" s="2">
-        <v>166173107478</v>
+        <v>167025031128</v>
       </c>
       <c r="E442" s="3">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10945,13 +10945,13 @@
         <v>950</v>
       </c>
       <c r="C443" s="2">
-        <v>43.36</v>
+        <v>42.34</v>
       </c>
       <c r="D443" s="2">
-        <v>10050752608</v>
+        <v>9814318852</v>
       </c>
       <c r="E443" s="3">
-        <v>45</v>
+        <v>467</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10962,13 +10962,13 @@
         <v>951</v>
       </c>
       <c r="C444" s="2">
-        <v>119.71</v>
+        <v>121.28</v>
       </c>
       <c r="D444" s="2">
-        <v>26883512564</v>
+        <v>27236090583</v>
       </c>
       <c r="E444" s="3">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10979,13 +10979,13 @@
         <v>952</v>
       </c>
       <c r="C445" s="2">
-        <v>171.02</v>
+        <v>171.265</v>
       </c>
       <c r="D445" s="2">
-        <v>39501612146</v>
+        <v>39558201405</v>
       </c>
       <c r="E445" s="3">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10996,13 +10996,13 @@
         <v>953</v>
       </c>
       <c r="C446" s="2">
-        <v>212.16</v>
+        <v>211.96</v>
       </c>
       <c r="D446" s="2">
-        <v>23246020712</v>
+        <v>23224107042</v>
       </c>
       <c r="E446" s="3">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11013,13 +11013,13 @@
         <v>954</v>
       </c>
       <c r="C447" s="2">
-        <v>51.49</v>
+        <v>52.285</v>
       </c>
       <c r="D447" s="2">
-        <v>18517348700</v>
+        <v>18803254550</v>
       </c>
       <c r="E447" s="3">
-        <v>38</v>
+        <v>378</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11030,13 +11030,13 @@
         <v>955</v>
       </c>
       <c r="C448" s="2">
-        <v>199.2</v>
+        <v>196.71</v>
       </c>
       <c r="D448" s="2">
-        <v>45427926926</v>
+        <v>44860077840</v>
       </c>
       <c r="E448" s="3">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -11047,13 +11047,13 @@
         <v>956</v>
       </c>
       <c r="C449" s="2">
-        <v>153.57</v>
+        <v>153.55</v>
       </c>
       <c r="D449" s="2">
-        <v>26004557420</v>
+        <v>26001170748</v>
       </c>
       <c r="E449" s="3">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11070,7 +11070,7 @@
         <v>41093718362</v>
       </c>
       <c r="E450" s="3">
-        <v>36</v>
+        <v>368</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11081,13 +11081,13 @@
         <v>958</v>
       </c>
       <c r="C451" s="2">
-        <v>183.61</v>
+        <v>183.92</v>
       </c>
       <c r="D451" s="2">
-        <v>166654325602</v>
+        <v>166935698299</v>
       </c>
       <c r="E451" s="3">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11098,13 +11098,13 @@
         <v>959</v>
       </c>
       <c r="C452" s="2">
-        <v>67.93000000000001</v>
+        <v>67.72</v>
       </c>
       <c r="D452" s="2">
-        <v>13700090065</v>
+        <v>13657737365</v>
       </c>
       <c r="E452" s="3">
-        <v>29</v>
+        <v>292</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11115,13 +11115,13 @@
         <v>960</v>
       </c>
       <c r="C453" s="2">
-        <v>422.13</v>
+        <v>420.495</v>
       </c>
       <c r="D453" s="2">
-        <v>17697934065</v>
+        <v>17629386172</v>
       </c>
       <c r="E453" s="3">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11132,13 +11132,13 @@
         <v>961</v>
       </c>
       <c r="C454" s="2">
-        <v>7.41</v>
+        <v>7.64</v>
       </c>
       <c r="D454" s="2">
-        <v>3155792585</v>
+        <v>3254230695</v>
       </c>
       <c r="E454" s="3">
-        <v>267</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11149,13 +11149,13 @@
         <v>962</v>
       </c>
       <c r="C455" s="2">
-        <v>8.07</v>
+        <v>8.27</v>
       </c>
       <c r="D455" s="2">
-        <v>3579759356</v>
+        <v>3668477060</v>
       </c>
       <c r="E455" s="3">
-        <v>245</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11166,13 +11166,13 @@
         <v>963</v>
       </c>
       <c r="C456" s="2">
-        <v>54.79</v>
+        <v>54.835</v>
       </c>
       <c r="D456" s="2">
-        <v>17969414497</v>
+        <v>17984173096</v>
       </c>
       <c r="E456" s="3">
-        <v>36</v>
+        <v>361</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11183,13 +11183,13 @@
         <v>964</v>
       </c>
       <c r="C457" s="2">
-        <v>42.41</v>
+        <v>42.66</v>
       </c>
       <c r="D457" s="2">
-        <v>13960218321</v>
+        <v>14042511520</v>
       </c>
       <c r="E457" s="3">
-        <v>46</v>
+        <v>464</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11200,13 +11200,13 @@
         <v>965</v>
       </c>
       <c r="C458" s="2">
-        <v>153.02</v>
+        <v>149.27</v>
       </c>
       <c r="D458" s="2">
-        <v>11165907961</v>
+        <v>10892269516</v>
       </c>
       <c r="E458" s="3">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11217,13 +11217,13 @@
         <v>966</v>
       </c>
       <c r="C459" s="2">
-        <v>472.51</v>
+        <v>471.17</v>
       </c>
       <c r="D459" s="2">
-        <v>23531750236</v>
+        <v>23465016103</v>
       </c>
       <c r="E459" s="3">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11234,13 +11234,13 @@
         <v>967</v>
       </c>
       <c r="C460" s="2">
-        <v>500</v>
+        <v>509.03</v>
       </c>
       <c r="D460" s="2">
-        <v>465516015000</v>
+        <v>473923234231</v>
       </c>
       <c r="E460" s="3">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11251,13 +11251,13 @@
         <v>968</v>
       </c>
       <c r="C461" s="2">
-        <v>48.3</v>
+        <v>48.62</v>
       </c>
       <c r="D461" s="2">
-        <v>9518417727</v>
+        <v>9581479708</v>
       </c>
       <c r="E461" s="3">
-        <v>40</v>
+        <v>407</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11268,13 +11268,13 @@
         <v>969</v>
       </c>
       <c r="C462" s="2">
-        <v>212.62</v>
+        <v>213.92</v>
       </c>
       <c r="D462" s="2">
-        <v>129752069191</v>
+        <v>130545398557</v>
       </c>
       <c r="E462" s="3">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11285,13 +11285,13 @@
         <v>970</v>
       </c>
       <c r="C463" s="2">
-        <v>184.57</v>
+        <v>185.95</v>
       </c>
       <c r="D463" s="2">
-        <v>159637944422</v>
+        <v>160831531480</v>
       </c>
       <c r="E463" s="3">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11302,13 +11302,13 @@
         <v>971</v>
       </c>
       <c r="C464" s="2">
-        <v>464.5</v>
+        <v>466.94</v>
       </c>
       <c r="D464" s="2">
-        <v>31925085000</v>
+        <v>32092786200</v>
       </c>
       <c r="E464" s="3">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11319,13 +11319,13 @@
         <v>972</v>
       </c>
       <c r="C465" s="2">
-        <v>36.55</v>
+        <v>37.475</v>
       </c>
       <c r="D465" s="2">
-        <v>56028251256</v>
+        <v>57446202895</v>
       </c>
       <c r="E465" s="3">
-        <v>54</v>
+        <v>528</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11336,13 +11336,13 @@
         <v>973</v>
       </c>
       <c r="C466" s="2">
-        <v>240.77</v>
+        <v>242.11</v>
       </c>
       <c r="D466" s="2">
-        <v>455155116741</v>
+        <v>457688272269</v>
       </c>
       <c r="E466" s="3">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11359,7 +11359,7 @@
         <v>16261898618</v>
       </c>
       <c r="E467" s="3">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11370,13 +11370,13 @@
         <v>975</v>
       </c>
       <c r="C468" s="2">
-        <v>19.5</v>
+        <v>20.085</v>
       </c>
       <c r="D468" s="2">
-        <v>7579207487</v>
+        <v>7806583711</v>
       </c>
       <c r="E468" s="3">
-        <v>101</v>
+        <v>985</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11393,7 +11393,7 @@
         <v>19317433987</v>
       </c>
       <c r="E469" s="3">
-        <v>66</v>
+        <v>669</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11404,13 +11404,13 @@
         <v>977</v>
       </c>
       <c r="C470" s="2">
-        <v>115.42</v>
+        <v>116.37</v>
       </c>
       <c r="D470" s="2">
-        <v>41726286254</v>
+        <v>42069727355</v>
       </c>
       <c r="E470" s="3">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11421,13 +11421,13 @@
         <v>978</v>
       </c>
       <c r="C471" s="2">
-        <v>223.9</v>
+        <v>221.19</v>
       </c>
       <c r="D471" s="2">
-        <v>29792001003</v>
+        <v>29431410013</v>
       </c>
       <c r="E471" s="3">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11438,13 +11438,13 @@
         <v>979</v>
       </c>
       <c r="C472" s="2">
-        <v>19.51</v>
+        <v>20.07</v>
       </c>
       <c r="D472" s="2">
-        <v>3743590799</v>
+        <v>3851043943</v>
       </c>
       <c r="E472" s="3">
-        <v>101</v>
+        <v>986</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11455,13 +11455,13 @@
         <v>980</v>
       </c>
       <c r="C473" s="2">
-        <v>229</v>
+        <v>229.08</v>
       </c>
       <c r="D473" s="2">
-        <v>33157179762</v>
+        <v>33168763056</v>
       </c>
       <c r="E473" s="3">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11472,13 +11472,13 @@
         <v>981</v>
       </c>
       <c r="C474" s="2">
-        <v>215.47</v>
+        <v>216.21</v>
       </c>
       <c r="D474" s="2">
-        <v>22429655186</v>
+        <v>22506686536</v>
       </c>
       <c r="E474" s="3">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11489,13 +11489,13 @@
         <v>982</v>
       </c>
       <c r="C475" s="2">
-        <v>359.01</v>
+        <v>361.14</v>
       </c>
       <c r="D475" s="2">
-        <v>92463599916</v>
+        <v>93012184824</v>
       </c>
       <c r="E475" s="3">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11506,13 +11506,13 @@
         <v>983</v>
       </c>
       <c r="C476" s="2">
-        <v>47.6</v>
+        <v>47.85</v>
       </c>
       <c r="D476" s="2">
-        <v>19042465347</v>
+        <v>19142478295</v>
       </c>
       <c r="E476" s="3">
-        <v>41</v>
+        <v>413</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11523,13 +11523,13 @@
         <v>984</v>
       </c>
       <c r="C477" s="2">
-        <v>32.27</v>
+        <v>33.81</v>
       </c>
       <c r="D477" s="2">
-        <v>135662805156</v>
+        <v>142136952040</v>
       </c>
       <c r="E477" s="3">
-        <v>61</v>
+        <v>585</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11540,13 +11540,13 @@
         <v>985</v>
       </c>
       <c r="C478" s="2">
-        <v>113.4</v>
+        <v>112.75</v>
       </c>
       <c r="D478" s="2">
-        <v>20397209125</v>
+        <v>20280293905</v>
       </c>
       <c r="E478" s="3">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11557,13 +11557,13 @@
         <v>986</v>
       </c>
       <c r="C479" s="2">
-        <v>271.88</v>
+        <v>279.71</v>
       </c>
       <c r="D479" s="2">
-        <v>16050047283</v>
+        <v>16512280144</v>
       </c>
       <c r="E479" s="3">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11574,13 +11574,13 @@
         <v>987</v>
       </c>
       <c r="C480" s="2">
-        <v>29.6</v>
+        <v>29.795</v>
       </c>
       <c r="D480" s="2">
-        <v>25552537825</v>
+        <v>25720873800</v>
       </c>
       <c r="E480" s="3">
-        <v>66</v>
+        <v>664</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11591,13 +11591,13 @@
         <v>988</v>
       </c>
       <c r="C481" s="2">
-        <v>38.47</v>
+        <v>38.995</v>
       </c>
       <c r="D481" s="2">
-        <v>12307993048</v>
+        <v>12475960200</v>
       </c>
       <c r="E481" s="3">
-        <v>51</v>
+        <v>507</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11608,13 +11608,13 @@
         <v>989</v>
       </c>
       <c r="C482" s="2">
-        <v>88.68000000000001</v>
+        <v>89.86</v>
       </c>
       <c r="D482" s="2">
-        <v>27973219200</v>
+        <v>28345438400</v>
       </c>
       <c r="E482" s="3">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11625,13 +11625,13 @@
         <v>990</v>
       </c>
       <c r="C483" s="2">
-        <v>78.59999999999999</v>
+        <v>79.09</v>
       </c>
       <c r="D483" s="2">
-        <v>39066649255</v>
+        <v>39310194523</v>
       </c>
       <c r="E483" s="3">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11642,13 +11642,13 @@
         <v>991</v>
       </c>
       <c r="C484" s="2">
-        <v>45.6</v>
+        <v>46.14</v>
       </c>
       <c r="D484" s="2">
-        <v>171101392466</v>
+        <v>173127593167</v>
       </c>
       <c r="E484" s="3">
-        <v>43</v>
+        <v>429</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11659,13 +11659,13 @@
         <v>992</v>
       </c>
       <c r="C485" s="2">
-        <v>155.11</v>
+        <v>156.61</v>
       </c>
       <c r="D485" s="2">
-        <v>8493503763</v>
+        <v>8575640670</v>
       </c>
       <c r="E485" s="3">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11682,7 +11682,7 @@
         <v>28853787821</v>
       </c>
       <c r="E486" s="3">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11693,13 +11693,13 @@
         <v>994</v>
       </c>
       <c r="C487" s="2">
-        <v>166.61</v>
+        <v>167.25</v>
       </c>
       <c r="D487" s="2">
-        <v>67779731220</v>
+        <v>68040093911</v>
       </c>
       <c r="E487" s="3">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11710,13 +11710,13 @@
         <v>995</v>
       </c>
       <c r="C488" s="2">
-        <v>33.34</v>
+        <v>33.37</v>
       </c>
       <c r="D488" s="2">
-        <v>40614358381</v>
+        <v>40650903994</v>
       </c>
       <c r="E488" s="3">
-        <v>59</v>
+        <v>593</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11727,13 +11727,13 @@
         <v>996</v>
       </c>
       <c r="C489" s="2">
-        <v>154.57</v>
+        <v>154.08</v>
       </c>
       <c r="D489" s="2">
-        <v>416231523262</v>
+        <v>414912034057</v>
       </c>
       <c r="E489" s="3">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11744,13 +11744,13 @@
         <v>997</v>
       </c>
       <c r="C490" s="2">
-        <v>60.56</v>
+        <v>60.875</v>
       </c>
       <c r="D490" s="2">
-        <v>15792514984</v>
+        <v>15874659010</v>
       </c>
       <c r="E490" s="3">
-        <v>32</v>
+        <v>325</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11761,13 +11761,13 @@
         <v>998</v>
       </c>
       <c r="C491" s="2">
-        <v>29.76</v>
+        <v>30.055</v>
       </c>
       <c r="D491" s="2">
-        <v>7622435853</v>
+        <v>7697994273</v>
       </c>
       <c r="E491" s="3">
-        <v>66</v>
+        <v>658</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11778,13 +11778,13 @@
         <v>999</v>
       </c>
       <c r="C492" s="2">
-        <v>384.59</v>
+        <v>382.19</v>
       </c>
       <c r="D492" s="2">
-        <v>28552955381</v>
+        <v>28374773179</v>
       </c>
       <c r="E492" s="3">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11795,13 +11795,13 @@
         <v>1000</v>
       </c>
       <c r="C493" s="2">
-        <v>12.15</v>
+        <v>12.28</v>
       </c>
       <c r="D493" s="2">
-        <v>4549786346</v>
+        <v>4598467187</v>
       </c>
       <c r="E493" s="3">
-        <v>162</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11812,13 +11812,13 @@
         <v>1001</v>
       </c>
       <c r="C494" s="2">
-        <v>34.52</v>
+        <v>34.22</v>
       </c>
       <c r="D494" s="2">
-        <v>25278857920</v>
+        <v>25059169120</v>
       </c>
       <c r="E494" s="3">
-        <v>57</v>
+        <v>578</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11829,13 +11829,13 @@
         <v>1002</v>
       </c>
       <c r="C495" s="2">
-        <v>108.25</v>
+        <v>108.27</v>
       </c>
       <c r="D495" s="2">
-        <v>12318618995</v>
+        <v>12320894952</v>
       </c>
       <c r="E495" s="3">
-        <v>18</v>
+        <v>182</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11846,13 +11846,13 @@
         <v>1003</v>
       </c>
       <c r="C496" s="2">
-        <v>63</v>
+        <v>63.92</v>
       </c>
       <c r="D496" s="2">
-        <v>34672448853</v>
+        <v>35178776678</v>
       </c>
       <c r="E496" s="3">
-        <v>31</v>
+        <v>309</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11869,7 +11869,7 @@
         <v>48414620999</v>
       </c>
       <c r="E497" s="3">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11880,13 +11880,13 @@
         <v>1005</v>
       </c>
       <c r="C498" s="2">
-        <v>100.92</v>
+        <v>102.01</v>
       </c>
       <c r="D498" s="2">
-        <v>408018040750</v>
+        <v>412424894341</v>
       </c>
       <c r="E498" s="3">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11897,13 +11897,13 @@
         <v>1006</v>
       </c>
       <c r="C499" s="2">
-        <v>40.57</v>
+        <v>40.405</v>
       </c>
       <c r="D499" s="2">
-        <v>8620224792</v>
+        <v>8585165953</v>
       </c>
       <c r="E499" s="3">
-        <v>48</v>
+        <v>490</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11914,13 +11914,13 @@
         <v>1007</v>
       </c>
       <c r="C500" s="2">
-        <v>15.91</v>
+        <v>15.885</v>
       </c>
       <c r="D500" s="2">
-        <v>2497209162</v>
+        <v>2493285201</v>
       </c>
       <c r="E500" s="3">
-        <v>124</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11931,13 +11931,13 @@
         <v>1008</v>
       </c>
       <c r="C501" s="2">
-        <v>110.91</v>
+        <v>110.8</v>
       </c>
       <c r="D501" s="2">
-        <v>19994674682</v>
+        <v>19974844061</v>
       </c>
       <c r="E501" s="3">
-        <v>17</v>
+        <v>178</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11948,13 +11948,13 @@
         <v>1009</v>
       </c>
       <c r="C502" s="2">
-        <v>133.84</v>
+        <v>135.29</v>
       </c>
       <c r="D502" s="2">
-        <v>37486841805</v>
+        <v>37892967930</v>
       </c>
       <c r="E502" s="3">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11965,13 +11965,13 @@
         <v>1010</v>
       </c>
       <c r="C503" s="2">
-        <v>140.86</v>
+        <v>139.96</v>
       </c>
       <c r="D503" s="2">
-        <v>29379069485</v>
+        <v>29191357129</v>
       </c>
       <c r="E503" s="3">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11982,13 +11982,13 @@
         <v>1011</v>
       </c>
       <c r="C504" s="2">
-        <v>313.15</v>
+        <v>314.69</v>
       </c>
       <c r="D504" s="2">
-        <v>16105410345</v>
+        <v>16184613065</v>
       </c>
       <c r="E504" s="3">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11999,13 +11999,13 @@
         <v>1012</v>
       </c>
       <c r="C505" s="2">
-        <v>32.42</v>
+        <v>34.02</v>
       </c>
       <c r="D505" s="2">
-        <v>4801424726</v>
+        <v>5038385848</v>
       </c>
       <c r="E505" s="3">
-        <v>61</v>
+        <v>582</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -12016,13 +12016,13 @@
         <v>1013</v>
       </c>
       <c r="C506" s="2">
-        <v>171.08</v>
+        <v>172.175</v>
       </c>
       <c r="D506" s="2">
-        <v>79058144911</v>
+        <v>79564157705</v>
       </c>
       <c r="E506" s="3">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
